--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="292">
   <si>
     <t>Row</t>
   </si>
@@ -738,9 +738,6 @@
   </si>
   <si>
     <t>RotaryEncoder_Alps_EC11E-Switch_Vertical_H20mm_CircularMountingHoles</t>
-  </si>
-  <si>
-    <t>Rotary_Encoder</t>
   </si>
   <si>
     <t>https://www.we-online.com/components/products/datasheet/482016514001.pdf</t>
@@ -1419,7 +1416,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1443,13 +1440,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>274</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F2" s="3">
         <v>27</v>
@@ -1457,41 +1454,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1499,13 +1496,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>282</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F6" s="3">
         <v>58</v>
@@ -3166,7 +3163,7 @@
         <v>239</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>240</v>
+        <v>63</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>22</v>
@@ -3178,7 +3175,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>33</v>
@@ -3187,10 +3184,10 @@
         <v>51</v>
       </c>
       <c r="O32" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="P32" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>243</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>37</v>
@@ -3205,15 +3202,15 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="V32" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="V32" s="10" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>235</v>
@@ -3225,16 +3222,16 @@
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>239</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>240</v>
+        <v>63</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3246,7 +3243,7 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>33</v>
@@ -3255,10 +3252,10 @@
         <v>51</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>37</v>
@@ -3273,36 +3270,36 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="V33" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="V33" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="F34" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G34" s="10" t="s">
+      <c r="H34" s="10" t="s">
         <v>255</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>256</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3314,7 +3311,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>33</v>
@@ -3323,10 +3320,10 @@
         <v>51</v>
       </c>
       <c r="O34" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="P34" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>259</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>95</v>
@@ -3341,33 +3338,33 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="V34" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="V34" s="10" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="C35" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="E35" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>63</v>
@@ -3382,7 +3379,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>33</v>
@@ -3391,10 +3388,10 @@
         <v>51</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>54</v>
@@ -3409,7 +3406,7 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>161</v>
@@ -3438,22 +3435,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="299">
   <si>
     <t>Row</t>
   </si>
@@ -569,6 +569,30 @@
     <t>14</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>PS1</t>
+  </si>
+  <si>
+    <t>CONV_PDQE15-Q24-S5-D</t>
+  </si>
+  <si>
+    <t>/psu</t>
+  </si>
+  <si>
+    <t>-20.0000</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Resistor</t>
   </si>
   <si>
@@ -593,7 +617,7 @@
     <t>55.6600</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>R3</t>
@@ -608,7 +632,7 @@
     <t>61.9500</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>R1</t>
@@ -623,7 +647,7 @@
     <t>56.0200</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -635,7 +659,7 @@
     <t>58.9500</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -671,7 +695,7 @@
     <t>7.5000</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>SW5</t>
@@ -683,7 +707,7 @@
     <t>78.7500</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>SW6</t>
@@ -692,7 +716,7 @@
     <t>153.7500</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>SW1</t>
@@ -704,7 +728,7 @@
     <t>60.5000</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>SW2</t>
@@ -713,7 +737,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>SW3</t>
@@ -722,7 +746,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -755,7 +779,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>SW7</t>
@@ -767,7 +791,7 @@
     <t>40.2500</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -803,10 +827,7 @@
     <t>6.6800</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t/>
+    <t>28</t>
   </si>
   <si>
     <t>Pico</t>
@@ -872,7 +893,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>58 (0 SMD/ 56 THT)</t>
+    <t>59 (0 SMD/ 56 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -932,7 +953,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -983,6 +1004,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF8A8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1000,7 +1027,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1033,6 +1060,9 @@
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1381,7 +1411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1395,7 +1425,7 @@
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
@@ -1416,7 +1446,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1440,55 +1470,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="F2" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1496,16 +1526,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F6" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2464,26 +2494,26 @@
       <c r="A22" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>183</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>184</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>185</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>64</v>
+        <v>184</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="H22" s="10" t="s">
-        <v>187</v>
+      <c r="H22" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>22</v>
@@ -2494,20 +2524,20 @@
       <c r="K22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>188</v>
+      <c r="L22" s="11" t="s">
+        <v>183</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>51</v>
       </c>
       <c r="O22" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>37</v>
@@ -2516,42 +2546,42 @@
         <v>38</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="C23" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>193</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -2563,7 +2593,7 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>33</v>
@@ -2572,10 +2602,10 @@
         <v>51</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
@@ -2598,28 +2628,28 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>22</v>
@@ -2631,7 +2661,7 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>33</v>
@@ -2640,13 +2670,13 @@
         <v>51</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>38</v>
@@ -2666,55 +2696,55 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="R25" s="7" t="s">
         <v>38</v>
@@ -2732,54 +2762,54 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1">
+    <row r="26" spans="1:22">
       <c r="A26" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>63</v>
+        <v>195</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>37</v>
@@ -2794,33 +2824,33 @@
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>216</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>63</v>
@@ -2835,7 +2865,7 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>33</v>
@@ -2844,10 +2874,10 @@
         <v>51</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>37</v>
@@ -2862,33 +2892,33 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>24</v>
+        <v>227</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>63</v>
@@ -2903,7 +2933,7 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>33</v>
@@ -2912,10 +2942,10 @@
         <v>51</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>37</v>
@@ -2930,33 +2960,33 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>226</v>
+        <v>24</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>63</v>
@@ -2971,7 +3001,7 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>33</v>
@@ -2980,10 +3010,10 @@
         <v>51</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>37</v>
@@ -2998,33 +3028,33 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>63</v>
@@ -3039,7 +3069,7 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>33</v>
@@ -3048,10 +3078,10 @@
         <v>51</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>37</v>
@@ -3066,33 +3096,33 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>63</v>
@@ -3107,7 +3137,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>33</v>
@@ -3116,10 +3146,10 @@
         <v>51</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>37</v>
@@ -3134,33 +3164,33 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>63</v>
@@ -3175,7 +3205,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>33</v>
@@ -3184,10 +3214,10 @@
         <v>51</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>37</v>
@@ -3202,33 +3232,33 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>63</v>
@@ -3243,7 +3273,7 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>33</v>
@@ -3252,10 +3282,10 @@
         <v>51</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>37</v>
@@ -3270,36 +3300,36 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>255</v>
+        <v>63</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3311,7 +3341,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>33</v>
@@ -3320,13 +3350,13 @@
         <v>51</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>38</v>
@@ -3338,36 +3368,36 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="F35" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="H35" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>22</v>
@@ -3379,7 +3409,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>33</v>
@@ -3388,16 +3418,16 @@
         <v>51</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="R35" s="7" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="S35" s="7" t="s">
         <v>39</v>
@@ -3406,9 +3436,77 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="V35" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="30" customHeight="1">
+      <c r="A36" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="V35" s="7" t="s">
+      <c r="D36" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="S36" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T36" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U36" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="V36" s="10" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3435,22 +3533,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>291</v>
+      <c r="A4" s="12" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="337">
   <si>
     <t>Row</t>
   </si>
@@ -98,6 +98,51 @@
     <t>Device</t>
   </si>
   <si>
+    <t>C18 C19</t>
+  </si>
+  <si>
+    <t>1nF</t>
+  </si>
+  <si>
+    <t>C_Disc_D7.5mm_W4.4mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>Capacitor_THT</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C101K1G5TA7301.pdf</t>
+  </si>
+  <si>
+    <t>/psu</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(2)</t>
+  </si>
+  <si>
+    <t>-20.0000</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12</t>
   </si>
   <si>
@@ -107,15 +152,9 @@
     <t>C_Disc_D3.0mm_W1.6mm_P2.50mm</t>
   </si>
   <si>
-    <t>Capacitor_THT</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>https://www.vishay.com/docs/45171/kseries.pdf</t>
   </si>
   <si>
@@ -131,25 +170,55 @@
     <t>81.3000</t>
   </si>
   <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
     <t>THT</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>4.1000</t>
   </si>
   <si>
     <t>1.6000</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C16 C17</t>
+  </si>
+  <si>
+    <t>4.7uF 50V</t>
+  </si>
+  <si>
+    <t>C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C102K1R5TA.pdf</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C13 C14 C15</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>CP_Radial_D10.0mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://www.cde.com/resources/catalogs/AVG.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>100V 0.15A standard switching diode, DO-35</t>
@@ -188,7 +257,7 @@
     <t>9.2200</t>
   </si>
   <si>
-    <t>3</t>
+    <t>6</t>
   </si>
   <si>
     <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
@@ -233,7 +302,49 @@
     <t>1.8000</t>
   </si>
   <si>
-    <t>4</t>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with a mounting pin</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>BarrelJack_CUI_PJ-063AH_Horizontal</t>
+  </si>
+  <si>
+    <t>Connector_BarrelJack</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/pj-063ah.pdf</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
@@ -254,9 +365,6 @@
     <t>Jack_6.35mm_Horizontal</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
   </si>
   <si>
@@ -281,9 +389,6 @@
     <t>Raspberry_Pi_2_3</t>
   </si>
   <si>
-    <t>Connector</t>
-  </si>
-  <si>
     <t>J8</t>
   </si>
   <si>
@@ -317,7 +422,7 @@
     <t>55.0150</t>
   </si>
   <si>
-    <t>6</t>
+    <t>11</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -356,9 +461,6 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
   </si>
   <si>
@@ -377,9 +479,6 @@
     <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
   </si>
   <si>
-    <t>pedalboard-hw(2)</t>
-  </si>
-  <si>
     <t>96.0000</t>
   </si>
   <si>
@@ -392,7 +491,7 @@
     <t>6.7000</t>
   </si>
   <si>
-    <t>8</t>
+    <t>13</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -416,16 +515,13 @@
     <t>103.0000</t>
   </si>
   <si>
-    <t>SMD</t>
-  </si>
-  <si>
     <t>17.5000</t>
   </si>
   <si>
     <t>14.7500</t>
   </si>
   <si>
-    <t>9</t>
+    <t>14</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -455,6 +551,9 @@
     <t>3.3500</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>Generic connector, single row, 01x03, script generated</t>
   </si>
   <si>
@@ -482,7 +581,7 @@
     <t>1.7000</t>
   </si>
   <si>
-    <t>11</t>
+    <t>16</t>
   </si>
   <si>
     <t>J7</t>
@@ -506,6 +605,9 @@
     <t>49.9600</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>USB Type A connector</t>
   </si>
   <si>
@@ -530,7 +632,22 @@
     <t>9.3200</t>
   </si>
   <si>
-    <t>13</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -566,10 +683,7 @@
     <t>11.7600</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t/>
+    <t>20</t>
   </si>
   <si>
     <t>PDQE15-Q24-S5-D</t>
@@ -581,16 +695,19 @@
     <t>CONV_PDQE15-Q24-S5-D</t>
   </si>
   <si>
-    <t>/psu</t>
-  </si>
-  <si>
-    <t>-20.0000</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>15</t>
+    <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
+  </si>
+  <si>
+    <t>114.9000</t>
+  </si>
+  <si>
+    <t>49.8000</t>
+  </si>
+  <si>
+    <t>22.5700</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -617,7 +734,7 @@
     <t>55.6600</t>
   </si>
   <si>
-    <t>16</t>
+    <t>22</t>
   </si>
   <si>
     <t>R3</t>
@@ -632,7 +749,7 @@
     <t>61.9500</t>
   </si>
   <si>
-    <t>17</t>
+    <t>23</t>
   </si>
   <si>
     <t>R1</t>
@@ -647,7 +764,7 @@
     <t>56.0200</t>
   </si>
   <si>
-    <t>18</t>
+    <t>24</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -659,7 +776,7 @@
     <t>58.9500</t>
   </si>
   <si>
-    <t>19</t>
+    <t>25</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -695,7 +812,7 @@
     <t>7.5000</t>
   </si>
   <si>
-    <t>20</t>
+    <t>26</t>
   </si>
   <si>
     <t>SW5</t>
@@ -707,7 +824,7 @@
     <t>78.7500</t>
   </si>
   <si>
-    <t>21</t>
+    <t>27</t>
   </si>
   <si>
     <t>SW6</t>
@@ -716,7 +833,7 @@
     <t>153.7500</t>
   </si>
   <si>
-    <t>22</t>
+    <t>28</t>
   </si>
   <si>
     <t>SW1</t>
@@ -728,7 +845,7 @@
     <t>60.5000</t>
   </si>
   <si>
-    <t>23</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW2</t>
@@ -737,7 +854,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>24</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW3</t>
@@ -746,7 +863,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>25</t>
+    <t>31</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -779,7 +896,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>26</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW7</t>
@@ -791,9 +908,6 @@
     <t>40.2500</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
   </si>
   <si>
@@ -827,7 +941,7 @@
     <t>6.6800</t>
   </si>
   <si>
-    <t>28</t>
+    <t>34</t>
   </si>
   <si>
     <t>Pico</t>
@@ -893,7 +1007,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>59 (0 SMD/ 56 THT)</t>
+    <t>69 (0 SMD/ 57 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1004,13 +1118,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1411,7 +1525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V36"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1422,10 +1536,10 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.7109375" customWidth="1"/>
@@ -1446,7 +1560,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1470,55 +1584,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="F2" s="3">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1526,16 +1640,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="F6" s="3">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -1606,7 +1720,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" ht="30" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
@@ -1668,128 +1782,128 @@
         <v>40</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="H10" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="J10" s="8" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" s="7" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>37</v>
@@ -1804,60 +1918,60 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="30" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>37</v>
@@ -1872,36 +1986,36 @@
         <v>40</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="30" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="5" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>22</v>
@@ -1913,158 +2027,158 @@
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="R13" s="7" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="60" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="30" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="30" customHeight="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="5" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>63</v>
+        <v>96</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>118</v>
+      <c r="L15" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -2076,172 +2190,172 @@
         <v>40</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>123</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="8" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="T16" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>134</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>22</v>
@@ -2253,63 +2367,63 @@
         <v>31</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="60" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -2321,158 +2435,158 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="J20" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>38</v>
@@ -2484,36 +2598,36 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>183</v>
+        <v>167</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>183</v>
+        <v>172</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>22</v>
@@ -2524,64 +2638,64 @@
       <c r="K22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>183</v>
+      <c r="L22" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>187</v>
+        <v>46</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>37</v>
+        <v>175</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -2593,63 +2707,63 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="8" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>191</v>
+        <v>121</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>22</v>
@@ -2661,63 +2775,63 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>195</v>
+        <v>86</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>22</v>
@@ -2729,87 +2843,87 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>42</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>195</v>
+        <v>208</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>196</v>
+      <c r="L26" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>212</v>
+        <v>36</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>37</v>
@@ -2824,104 +2938,104 @@
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="G27" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="I27" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="V27" s="7" t="s">
+      <c r="F28" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="30" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>63</v>
+      <c r="H28" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>22</v>
@@ -2933,63 +3047,63 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>
@@ -3001,19 +3115,19 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>37</v>
@@ -3022,42 +3136,42 @@
         <v>38</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="8" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>63</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>22</v>
@@ -3069,19 +3183,19 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>37</v>
@@ -3090,42 +3204,42 @@
         <v>38</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T30" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="30" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>22</v>
@@ -3137,87 +3251,87 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="30" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>216</v>
+        <v>25</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>37</v>
@@ -3226,42 +3340,42 @@
         <v>38</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3273,19 +3387,19 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>37</v>
@@ -3294,42 +3408,42 @@
         <v>38</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>243</v>
-      </c>
       <c r="C34" s="10" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>25</v>
+        <v>255</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3341,19 +3455,19 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>37</v>
@@ -3362,42 +3476,42 @@
         <v>38</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B35" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>262</v>
-      </c>
       <c r="H35" s="7" t="s">
-        <v>263</v>
+        <v>86</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>22</v>
@@ -3409,63 +3523,63 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>183</v>
+        <v>271</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>253</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>272</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>22</v>
@@ -3477,37 +3591,445 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P36" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="M36" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N36" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>276</v>
-      </c>
       <c r="Q36" s="10" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="R36" s="10" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="T36" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="V36" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="30" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="V36" s="10" t="s">
-        <v>161</v>
+      <c r="G37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R37" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="V37" s="7" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="30" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U38" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="V38" s="10" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="30" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R39" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="V39" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" ht="30" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S40" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T40" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U40" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="V40" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="30" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S41" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U41" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="V41" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="30" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="R42" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="S42" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="T42" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U42" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3533,22 +4055,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
-        <v>298</v>
+      <c r="A4" s="11" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="358">
   <si>
     <t>Row</t>
   </si>
@@ -125,567 +125,630 @@
     <t>pedalboard-hw(2)</t>
   </si>
   <si>
-    <t>-20.0000</t>
-  </si>
-  <si>
-    <t>125.0000</t>
+    <t>123.8000</t>
+  </si>
+  <si>
+    <t>63.3000</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>6.6000</t>
+  </si>
+  <si>
+    <t>1.6000</t>
+  </si>
+  <si>
+    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C_Disc_D3.0mm_W1.6mm_P2.50mm</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/45171/kseries.pdf</t>
+  </si>
+  <si>
+    <t>/MIDI</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(12)</t>
+  </si>
+  <si>
+    <t>43.4750</t>
+  </si>
+  <si>
+    <t>81.3000</t>
   </si>
   <si>
     <t>0.0000</t>
   </si>
   <si>
-    <t>top</t>
+    <t>4.1000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C16 C17</t>
+  </si>
+  <si>
+    <t>4.7uF 50V</t>
+  </si>
+  <si>
+    <t>C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C102K1R5TA.pdf</t>
+  </si>
+  <si>
+    <t>139.9000</t>
+  </si>
+  <si>
+    <t>75.8000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C13 C14 C15</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>CP_Radial_D10.0mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://www.cde.com/resources/catalogs/AVG.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
+    <t>139.8000</t>
+  </si>
+  <si>
+    <t>84.8000</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D_DO-35_SOD27_P7.62mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Diode_THT</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/download/data-sheet/pdf/1n914-d.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(1)</t>
+  </si>
+  <si>
+    <t>53.7000</t>
+  </si>
+  <si>
+    <t>59.2250</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>9.2200</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
+  </si>
+  <si>
+    <t>NeoPixel_THT</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10</t>
+  </si>
+  <si>
+    <t>NEOPIX</t>
+  </si>
+  <si>
+    <t>LED_D5.0mm-NeoPixel</t>
+  </si>
+  <si>
+    <t>Pedalboard Library</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>https://cdn.sparkfun.com/datasheets/Components/LED/COM-12877.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(10)</t>
+  </si>
+  <si>
+    <t>45.6000</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>4.8800</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Bel%20Fuse%20PDFs/0ZRP_Series.pdf</t>
+  </si>
+  <si>
+    <t>144.9000</t>
+  </si>
+  <si>
+    <t>97.4000</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with a mounting pin</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>BarrelJack_CUI_PJ-063AH_Horizontal</t>
+  </si>
+  <si>
+    <t>Connector_BarrelJack</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/pj-063ah.pdf</t>
+  </si>
+  <si>
+    <t>161.9000</t>
+  </si>
+  <si>
+    <t>94.7000</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>10.8000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J3 J9 J10 J11 J12</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(5)</t>
+  </si>
+  <si>
+    <t>155.6150</t>
+  </si>
+  <si>
+    <t>91.2000</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
+  </si>
+  <si>
+    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>/Audio</t>
+  </si>
+  <si>
+    <t>100.2500</t>
+  </si>
+  <si>
+    <t>56.6244</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Top_Bottom</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>MIDI IN/OUT</t>
+  </si>
+  <si>
+    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx21021.pdf</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>72.1500</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>6.7800</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J16 J17</t>
+  </si>
+  <si>
+    <t>MIDI OUT J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>100.5000</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>MIDI_OUT</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf?5023</t>
+  </si>
+  <si>
+    <t>103.0000</t>
   </si>
   <si>
     <t>SMD</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C_Disc_D3.0mm_W1.6mm_P2.50mm</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>https://www.vishay.com/docs/45171/kseries.pdf</t>
-  </si>
-  <si>
-    <t>/MIDI</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(12)</t>
-  </si>
-  <si>
-    <t>43.4750</t>
-  </si>
-  <si>
-    <t>81.3000</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>4.1000</t>
-  </si>
-  <si>
-    <t>1.6000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C16 C17</t>
-  </si>
-  <si>
-    <t>4.7uF 50V</t>
-  </si>
-  <si>
-    <t>C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C102K1R5TA.pdf</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C13 C14 C15</t>
-  </si>
-  <si>
-    <t>220uF</t>
-  </si>
-  <si>
-    <t>CP_Radial_D10.0mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://www.cde.com/resources/catalogs/AVG.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D_DO-35_SOD27_P7.62mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Diode_THT</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/download/data-sheet/pdf/1n914-d.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(1)</t>
-  </si>
-  <si>
-    <t>53.7000</t>
-  </si>
-  <si>
-    <t>59.2250</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>9.2200</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
-  </si>
-  <si>
-    <t>NeoPixel_THT</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10</t>
-  </si>
-  <si>
-    <t>NEOPIX</t>
-  </si>
-  <si>
-    <t>LED_D5.0mm-NeoPixel</t>
-  </si>
-  <si>
-    <t>Pedalboard Library</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>https://cdn.sparkfun.com/datasheets/Components/LED/COM-12877.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(10)</t>
-  </si>
-  <si>
-    <t>45.6000</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>4.8800</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Pico USB TP</t>
+  </si>
+  <si>
+    <t>Spring_Loaded_Pins_2mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
+  </si>
+  <si>
+    <t>107.0000</t>
+  </si>
+  <si>
+    <t>1.3500</t>
+  </si>
+  <si>
+    <t>3.3500</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
+  </si>
+  <si>
+    <t>23.6150</t>
+  </si>
+  <si>
+    <t>42.2100</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Raspberry_pi</t>
+  </si>
+  <si>
+    <t>Raspberry PI Compute Module CM4 Nano A</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
+  </si>
+  <si>
+    <t>29.5900</t>
+  </si>
+  <si>
+    <t>18.6800</t>
+  </si>
+  <si>
+    <t>49.9600</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>USB Type A connector</t>
+  </si>
+  <si>
+    <t>USB_A</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>USB A BCB Male Plug</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
+  </si>
+  <si>
+    <t>93.6250</t>
+  </si>
+  <si>
+    <t>35.0150</t>
+  </si>
+  <si>
+    <t>9.3200</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>L_Radial_D12.0mm_P5.00mm_Fastron_11P</t>
+  </si>
+  <si>
+    <t>Inductor_THT</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Wurth%20Electronics%20PDFs/7447471022.pdf</t>
+  </si>
+  <si>
+    <t>139.2000</t>
+  </si>
+  <si>
+    <t>68.1000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
+  </si>
+  <si>
+    <t>2.6000</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Inductor with ferrite core</t>
+  </si>
+  <si>
+    <t>L_Ferrite</t>
+  </si>
+  <si>
+    <t>L1 L2 L3 L4 L5</t>
+  </si>
+  <si>
+    <t>1K@100MHz</t>
+  </si>
+  <si>
+    <t>L_Axial_L6.6mm_D2.7mm_P10.16mm_Horizontal_Vishay_IM-2</t>
+  </si>
+  <si>
+    <t>https://www.fair-rite.com/wp-content/themes/fair-rite/print_product.php?pid=18584</t>
+  </si>
+  <si>
+    <t>56.6000</t>
+  </si>
+  <si>
+    <t>69.7300</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>DC Barrel Jack with a mounting pin</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>BarrelJack_CUI_PJ-063AH_Horizontal</t>
-  </si>
-  <si>
-    <t>Connector_BarrelJack</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/pj-063ah.pdf</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J3 J9 J10 J11 J12</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(5)</t>
-  </si>
-  <si>
-    <t>155.6150</t>
-  </si>
-  <si>
-    <t>91.2000</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
-  </si>
-  <si>
-    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>/Audio</t>
-  </si>
-  <si>
-    <t>100.2500</t>
-  </si>
-  <si>
-    <t>56.6244</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Top_Bottom</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>MIDI IN/OUT</t>
-  </si>
-  <si>
-    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx21021.pdf</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>72.1500</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>6.7800</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>100.5000</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf?5023</t>
-  </si>
-  <si>
-    <t>103.0000</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>107.0000</t>
-  </si>
-  <si>
-    <t>1.3500</t>
-  </si>
-  <si>
-    <t>3.3500</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>23.6150</t>
-  </si>
-  <si>
-    <t>42.2100</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Raspberry_pi</t>
-  </si>
-  <si>
-    <t>Raspberry PI Compute Module CM4 Nano A</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
-  </si>
-  <si>
-    <t>29.5900</t>
-  </si>
-  <si>
-    <t>18.6800</t>
-  </si>
-  <si>
-    <t>49.9600</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>USB Type A connector</t>
-  </si>
-  <si>
-    <t>USB_A</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>USB A BCB Male Plug</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
-  </si>
-  <si>
-    <t>93.6250</t>
-  </si>
-  <si>
-    <t>35.0150</t>
-  </si>
-  <si>
-    <t>9.3200</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Inductor with ferrite core</t>
-  </si>
-  <si>
-    <t>L_Ferrite</t>
-  </si>
-  <si>
-    <t>L1 L2 L3 L4 L5</t>
-  </si>
-  <si>
-    <t>1K@100MHz</t>
-  </si>
-  <si>
-    <t>L_Axial_L6.6mm_D2.7mm_P10.16mm_Horizontal_Vishay_IM-2</t>
-  </si>
-  <si>
-    <t>Inductor_THT</t>
-  </si>
-  <si>
-    <t>https://www.fair-rite.com/wp-content/themes/fair-rite/print_product.php?pid=18584</t>
-  </si>
-  <si>
-    <t>56.6000</t>
-  </si>
-  <si>
-    <t>69.7300</t>
-  </si>
-  <si>
-    <t>270.0000</t>
-  </si>
-  <si>
-    <t>11.7600</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>PDQE15-Q24-S5-D</t>
   </si>
   <si>
@@ -698,10 +761,10 @@
     <t>https://www.cui.com/product/resource/pdqe15-d.pdf</t>
   </si>
   <si>
-    <t>114.9000</t>
-  </si>
-  <si>
-    <t>49.8000</t>
+    <t>114.8000</t>
+  </si>
+  <si>
+    <t>42.4000</t>
   </si>
   <si>
     <t>22.5700</t>
@@ -1007,7 +1070,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>69 (0 SMD/ 57 THT)</t>
+    <t>69 (0 SMD/ 67 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1118,13 +1181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFF8A8A"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
+        <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,7 +1623,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1584,13 +1647,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="F2" s="3">
         <v>34</v>
@@ -1598,41 +1661,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1640,13 +1703,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="F6" s="3">
         <v>69</v>
@@ -1782,10 +1845,10 @@
         <v>40</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1802,63 +1865,63 @@
         <v>25</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K10" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R10" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T10" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="30" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
@@ -1870,13 +1933,13 @@
         <v>25</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>29</v>
@@ -1891,7 +1954,7 @@
         <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>33</v>
@@ -1900,13 +1963,13 @@
         <v>34</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>38</v>
@@ -1918,63 +1981,63 @@
         <v>40</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V11" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="P12" s="10" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R12" s="10" t="s">
         <v>38</v>
@@ -1986,36 +2049,36 @@
         <v>40</v>
       </c>
       <c r="U12" s="10" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="V12" s="10" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>22</v>
@@ -2027,131 +2090,131 @@
         <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S13" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="30" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T14" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>98</v>
+        <v>105</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>22</v>
@@ -2162,23 +2225,23 @@
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>99</v>
+      <c r="L15" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>33</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>36</v>
+        <v>109</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -2190,36 +2253,36 @@
         <v>40</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="8" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>22</v>
@@ -2231,22 +2294,22 @@
         <v>31</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>36</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>38</v>
@@ -2258,104 +2321,104 @@
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="30" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S17" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="V17" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="30" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>22</v>
@@ -2367,63 +2430,63 @@
         <v>31</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="60" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -2435,63 +2498,63 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="S19" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>30</v>
@@ -2503,63 +2566,63 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="R20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S20" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T20" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>30</v>
@@ -2571,63 +2634,63 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>34</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>39</v>
+        <v>179</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>22</v>
@@ -2639,63 +2702,63 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -2707,63 +2770,63 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="8" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>22</v>
@@ -2775,63 +2838,63 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="R24" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>22</v>
@@ -2843,63 +2906,63 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>98</v>
+        <v>223</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>22</v>
@@ -2910,23 +2973,23 @@
       <c r="K26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L26" s="12" t="s">
-        <v>99</v>
+      <c r="L26" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>35</v>
+        <v>227</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>38</v>
@@ -2938,104 +3001,104 @@
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>37</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S27" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T27" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>98</v>
+        <v>241</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>98</v>
+        <v>245</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>22</v>
@@ -3047,63 +3110,63 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>33</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>219</v>
+        <v>37</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="5" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>
@@ -3115,63 +3178,63 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S29" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="8" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>22</v>
@@ -3183,63 +3246,63 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T30" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>22</v>
@@ -3251,63 +3314,63 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S31" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>249</v>
+        <v>270</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>30</v>
@@ -3319,63 +3382,63 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="30" customHeight="1">
       <c r="A33" s="5" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>257</v>
+        <v>278</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3387,63 +3450,63 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S33" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T33" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3455,63 +3518,63 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T34" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>22</v>
@@ -3523,63 +3586,63 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S35" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T35" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>22</v>
@@ -3591,63 +3654,63 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S36" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T36" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>22</v>
@@ -3659,63 +3722,63 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R37" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S37" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T37" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>258</v>
-      </c>
       <c r="H38" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>22</v>
@@ -3727,63 +3790,63 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N38" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R38" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S38" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T38" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -3795,63 +3858,63 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R39" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S39" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T39" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>22</v>
@@ -3863,63 +3926,63 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>295</v>
+        <v>316</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R40" s="10" t="s">
         <v>38</v>
       </c>
       <c r="S40" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T40" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>297</v>
+        <v>318</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>301</v>
+        <v>322</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>22</v>
@@ -3931,63 +3994,63 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>303</v>
+        <v>324</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S41" s="7" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T41" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>305</v>
+        <v>326</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>98</v>
+        <v>328</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>22</v>
@@ -3999,37 +4062,37 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N42" s="8" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="S42" s="10" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="T42" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -4055,22 +4118,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>336</v>
+      <c r="A4" s="12" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="366">
   <si>
     <t>Row</t>
   </si>
@@ -125,595 +125,619 @@
     <t>pedalboard-hw(2)</t>
   </si>
   <si>
-    <t>123.8000</t>
-  </si>
-  <si>
-    <t>63.3000</t>
+    <t>126.5000</t>
+  </si>
+  <si>
+    <t>69.3000</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>THT</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>6.6000</t>
+  </si>
+  <si>
+    <t>1.6000</t>
+  </si>
+  <si>
+    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C_Disc_D3.0mm_W1.6mm_P2.50mm</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>https://www.vishay.com/docs/45171/kseries.pdf</t>
+  </si>
+  <si>
+    <t>/MIDI</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(12)</t>
+  </si>
+  <si>
+    <t>43.4750</t>
+  </si>
+  <si>
+    <t>81.3000</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>4.1000</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>C16 C17</t>
+  </si>
+  <si>
+    <t>4.7uF 50V</t>
+  </si>
+  <si>
+    <t>C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C102K1R5TA.pdf</t>
+  </si>
+  <si>
+    <t>139.9000</t>
+  </si>
+  <si>
+    <t>80.4000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Polarized capacitor</t>
+  </si>
+  <si>
+    <t>C_Polarized</t>
+  </si>
+  <si>
+    <t>C13 C14 C15</t>
+  </si>
+  <si>
+    <t>220uF</t>
+  </si>
+  <si>
+    <t>CP_Radial_D10.0mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://www.cde.com/resources/catalogs/AVG.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(3)</t>
+  </si>
+  <si>
+    <t>139.8323</t>
+  </si>
+  <si>
+    <t>87.5000</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>100V 0.15A standard switching diode, DO-35</t>
+  </si>
+  <si>
+    <t>1N4148</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>D_DO-35_SOD27_P7.62mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Diode_THT</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/download/data-sheet/pdf/1n914-d.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(1)</t>
+  </si>
+  <si>
+    <t>53.7000</t>
+  </si>
+  <si>
+    <t>59.2250</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>9.2200</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
+  </si>
+  <si>
+    <t>NeoPixel_THT</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10</t>
+  </si>
+  <si>
+    <t>NEOPIX</t>
+  </si>
+  <si>
+    <t>LED_D5.0mm-NeoPixel</t>
+  </si>
+  <si>
+    <t>Pedalboard Library</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>https://cdn.sparkfun.com/datasheets/Components/LED/COM-12877.pdf</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(10)</t>
+  </si>
+  <si>
+    <t>45.6000</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>4.8800</t>
+  </si>
+  <si>
+    <t>1.8000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Bel%20Fuse%20PDFs/0ZRP_Series.pdf</t>
+  </si>
+  <si>
+    <t>144.9000</t>
+  </si>
+  <si>
+    <t>95.6000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>DC Barrel Jack with a mounting pin</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_MountingPin</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J13</t>
+  </si>
+  <si>
+    <t>BarrelJack_CUI_PJ-063AH_Horizontal</t>
+  </si>
+  <si>
+    <t>Connector_BarrelJack</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/pj-063ah.pdf</t>
+  </si>
+  <si>
+    <t>161.9000</t>
+  </si>
+  <si>
+    <t>94.7000</t>
+  </si>
+  <si>
+    <t>11.0000</t>
+  </si>
+  <si>
+    <t>10.8000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>67.8250</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>1.7000</t>
+  </si>
+  <si>
+    <t>4.2400</t>
+  </si>
+  <si>
+    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
+  </si>
+  <si>
+    <t>NMJ6HCD2</t>
+  </si>
+  <si>
+    <t>Connector_Audio</t>
+  </si>
+  <si>
+    <t>J3 J9 J10 J11 J12</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Jack_6.35mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(5)</t>
+  </si>
+  <si>
+    <t>155.6150</t>
+  </si>
+  <si>
+    <t>91.2000</t>
+  </si>
+  <si>
+    <t>15.7000</t>
+  </si>
+  <si>
+    <t>19.2300</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
+  </si>
+  <si>
+    <t>Raspberry_Pi_2_3</t>
+  </si>
+  <si>
+    <t>J8</t>
+  </si>
+  <si>
+    <t>HiFi Berry</t>
+  </si>
+  <si>
+    <t>HiFi Berry DAC ADC+</t>
+  </si>
+  <si>
+    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
+  </si>
+  <si>
+    <t>/Audio</t>
+  </si>
+  <si>
+    <t>100.2500</t>
+  </si>
+  <si>
+    <t>56.6244</t>
+  </si>
+  <si>
+    <t>41.4500</t>
+  </si>
+  <si>
+    <t>55.0150</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Top_Bottom</t>
+  </si>
+  <si>
+    <t>J15</t>
+  </si>
+  <si>
+    <t>MIDI IN/OUT</t>
+  </si>
+  <si>
+    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx21021.pdf</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>72.1500</t>
+  </si>
+  <si>
+    <t>6.7800</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
+  </si>
+  <si>
+    <t>AudioJack3_SwitchTR</t>
+  </si>
+  <si>
+    <t>J16 J17</t>
+  </si>
+  <si>
+    <t>MIDI OUT J</t>
+  </si>
+  <si>
+    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>100.5000</t>
+  </si>
+  <si>
+    <t>11.2000</t>
+  </si>
+  <si>
+    <t>6.7000</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
+  </si>
+  <si>
+    <t>DIN-5_180degree</t>
+  </si>
+  <si>
+    <t>J1 J2</t>
+  </si>
+  <si>
+    <t>MIDI_OUT</t>
+  </si>
+  <si>
+    <t>CP-2350</t>
+  </si>
+  <si>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf?5023</t>
+  </si>
+  <si>
+    <t>103.0000</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>17.5000</t>
+  </si>
+  <si>
+    <t>14.7500</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x02, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>Pico USB TP</t>
+  </si>
+  <si>
+    <t>Spring_Loaded_Pins_2mm</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
+  </si>
+  <si>
+    <t>107.0000</t>
+  </si>
+  <si>
+    <t>1.3500</t>
+  </si>
+  <si>
+    <t>3.3500</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Generic connector, single row, 01x03, script generated</t>
+  </si>
+  <si>
+    <t>Conn_01x03_Pin</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>RGB_LED_EXT</t>
+  </si>
+  <si>
+    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
+  </si>
+  <si>
+    <t>23.6150</t>
+  </si>
+  <si>
+    <t>42.2100</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Raspberry_pi</t>
+  </si>
+  <si>
+    <t>Raspberry PI Compute Module CM4 Nano A</t>
+  </si>
+  <si>
+    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
+  </si>
+  <si>
+    <t>29.5900</t>
+  </si>
+  <si>
+    <t>18.6800</t>
+  </si>
+  <si>
+    <t>49.9600</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>USB Type A connector</t>
+  </si>
+  <si>
+    <t>USB_A</t>
+  </si>
+  <si>
+    <t>J6</t>
+  </si>
+  <si>
+    <t>USB A BCB Male Plug</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
+  </si>
+  <si>
+    <t>93.6250</t>
+  </si>
+  <si>
+    <t>35.0150</t>
+  </si>
+  <si>
+    <t>9.3200</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Inductor</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>L6</t>
+  </si>
+  <si>
+    <t>2.2uH</t>
+  </si>
+  <si>
+    <t>L_Radial_D12.0mm_P5.00mm_Fastron_11P</t>
+  </si>
+  <si>
+    <t>Inductor_THT</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data%20Sheets/Wurth%20Electronics%20PDFs/7447471022.pdf</t>
+  </si>
+  <si>
+    <t>141.9000</t>
+  </si>
+  <si>
+    <t>74.7000</t>
   </si>
   <si>
     <t>270.0000</t>
   </si>
   <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>THT</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>6.6000</t>
-  </si>
-  <si>
-    <t>1.6000</t>
-  </si>
-  <si>
-    <t>C1 C2 C3 C4 C5 C6 C7 C8 C9 C10 C11 C12</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C_Disc_D3.0mm_W1.6mm_P2.50mm</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>https://www.vishay.com/docs/45171/kseries.pdf</t>
-  </si>
-  <si>
-    <t>/MIDI</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(12)</t>
-  </si>
-  <si>
-    <t>43.4750</t>
-  </si>
-  <si>
-    <t>81.3000</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>4.1000</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>C16 C17</t>
-  </si>
-  <si>
-    <t>4.7uF 50V</t>
-  </si>
-  <si>
-    <t>C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C102K1R5TA.pdf</t>
-  </si>
-  <si>
-    <t>139.9000</t>
-  </si>
-  <si>
-    <t>75.8000</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Polarized capacitor</t>
-  </si>
-  <si>
-    <t>C_Polarized</t>
-  </si>
-  <si>
-    <t>C13 C14 C15</t>
-  </si>
-  <si>
-    <t>220uF</t>
-  </si>
-  <si>
-    <t>CP_Radial_D10.0mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://www.cde.com/resources/catalogs/AVG.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(3)</t>
-  </si>
-  <si>
-    <t>139.8000</t>
-  </si>
-  <si>
-    <t>84.8000</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>2.0000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>100V 0.15A standard switching diode, DO-35</t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>Diode</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>D_DO-35_SOD27_P7.62mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Diode_THT</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/download/data-sheet/pdf/1n914-d.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(1)</t>
-  </si>
-  <si>
-    <t>53.7000</t>
-  </si>
-  <si>
-    <t>59.2250</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>9.2200</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
-  </si>
-  <si>
-    <t>NeoPixel_THT</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10</t>
-  </si>
-  <si>
-    <t>NEOPIX</t>
-  </si>
-  <si>
-    <t>LED_D5.0mm-NeoPixel</t>
-  </si>
-  <si>
-    <t>Pedalboard Library</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>https://cdn.sparkfun.com/datasheets/Components/LED/COM-12877.pdf</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(10)</t>
-  </si>
-  <si>
-    <t>45.6000</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>4.8800</t>
-  </si>
-  <si>
-    <t>1.8000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Bel%20Fuse%20PDFs/0ZRP_Series.pdf</t>
-  </si>
-  <si>
-    <t>144.9000</t>
-  </si>
-  <si>
-    <t>97.4000</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>DC Barrel Jack with a mounting pin</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_MountingPin</t>
-  </si>
-  <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>BarrelJack_CUI_PJ-063AH_Horizontal</t>
-  </si>
-  <si>
-    <t>Connector_BarrelJack</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/pj-063ah.pdf</t>
-  </si>
-  <si>
-    <t>161.9000</t>
-  </si>
-  <si>
-    <t>94.7000</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>10.8000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
-  </si>
-  <si>
-    <t>NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>Connector_Audio</t>
-  </si>
-  <si>
-    <t>J3 J9 J10 J11 J12</t>
-  </si>
-  <si>
-    <t>EXP</t>
-  </si>
-  <si>
-    <t>Jack_6.35mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(5)</t>
-  </si>
-  <si>
-    <t>155.6150</t>
-  </si>
-  <si>
-    <t>91.2000</t>
-  </si>
-  <si>
-    <t>15.7000</t>
-  </si>
-  <si>
-    <t>19.2300</t>
-  </si>
-  <si>
-    <t>expansion header for Raspberry Pi 2 &amp; 3</t>
-  </si>
-  <si>
-    <t>Raspberry_Pi_2_3</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>HiFi Berry</t>
-  </si>
-  <si>
-    <t>HiFi Berry DAC ADC+</t>
-  </si>
-  <si>
-    <t>https://www.hifiberry.com/docs/data-sheets/datasheet-dac-adc-pro/</t>
-  </si>
-  <si>
-    <t>/Audio</t>
-  </si>
-  <si>
-    <t>100.2500</t>
-  </si>
-  <si>
-    <t>56.6244</t>
-  </si>
-  <si>
-    <t>bottom</t>
-  </si>
-  <si>
-    <t>41.4500</t>
-  </si>
-  <si>
-    <t>55.0150</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x03_Top_Bottom</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>MIDI IN/OUT</t>
-  </si>
-  <si>
-    <t>PinHeader_2x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx21021.pdf</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>72.1500</t>
-  </si>
-  <si>
-    <t>4.2400</t>
-  </si>
-  <si>
-    <t>6.7800</t>
-  </si>
-  <si>
-    <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
-  </si>
-  <si>
-    <t>AudioJack3_SwitchTR</t>
-  </si>
-  <si>
-    <t>J16 J17</t>
-  </si>
-  <si>
-    <t>MIDI OUT J</t>
-  </si>
-  <si>
-    <t>Jack_3.5mm_CUI_SJ1-3525N_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.cuidevices.com/product/resource/sj1-352xng.pdf</t>
-  </si>
-  <si>
-    <t>96.0000</t>
-  </si>
-  <si>
-    <t>100.5000</t>
-  </si>
-  <si>
-    <t>11.2000</t>
-  </si>
-  <si>
-    <t>6.7000</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
-  </si>
-  <si>
-    <t>DIN-5_180degree</t>
-  </si>
-  <si>
-    <t>J1 J2</t>
-  </si>
-  <si>
-    <t>MIDI_OUT</t>
-  </si>
-  <si>
-    <t>CP-2350</t>
-  </si>
-  <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf?5023</t>
-  </si>
-  <si>
-    <t>103.0000</t>
-  </si>
-  <si>
-    <t>SMD</t>
-  </si>
-  <si>
-    <t>17.5000</t>
-  </si>
-  <si>
-    <t>14.7500</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x02, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
-    <t>Pico USB TP</t>
-  </si>
-  <si>
-    <t>Spring_Loaded_Pins_2mm</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Mill%20Max%20PDFs/Spring%20Loaded%20Connectors.pdf</t>
-  </si>
-  <si>
-    <t>107.0000</t>
-  </si>
-  <si>
-    <t>1.3500</t>
-  </si>
-  <si>
-    <t>3.3500</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Generic connector, single row, 01x03, script generated</t>
-  </si>
-  <si>
-    <t>Conn_01x03_Pin</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>RGB_LED_EXT</t>
-  </si>
-  <si>
-    <t>PinHeader_1x03_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
-  </si>
-  <si>
-    <t>23.6150</t>
-  </si>
-  <si>
-    <t>42.2100</t>
-  </si>
-  <si>
-    <t>1.7000</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Raspberry_pi</t>
-  </si>
-  <si>
-    <t>Raspberry PI Compute Module CM4 Nano A</t>
-  </si>
-  <si>
-    <t>https://www.waveshare.com/wiki/CM4-NANO-A</t>
-  </si>
-  <si>
-    <t>29.5900</t>
-  </si>
-  <si>
-    <t>18.6800</t>
-  </si>
-  <si>
-    <t>49.9600</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>USB Type A connector</t>
-  </si>
-  <si>
-    <t>USB_A</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>USB A BCB Male Plug</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/GCT%20PDFs/USB1061_Spec.pdf</t>
-  </si>
-  <si>
-    <t>93.6250</t>
-  </si>
-  <si>
-    <t>35.0150</t>
-  </si>
-  <si>
-    <t>9.3200</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Inductor</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>2.2uH</t>
-  </si>
-  <si>
-    <t>L_Radial_D12.0mm_P5.00mm_Fastron_11P</t>
-  </si>
-  <si>
-    <t>Inductor_THT</t>
-  </si>
-  <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Wurth%20Electronics%20PDFs/7447471022.pdf</t>
-  </si>
-  <si>
-    <t>139.2000</t>
-  </si>
-  <si>
-    <t>68.1000</t>
-  </si>
-  <si>
     <t>7.6000</t>
   </si>
   <si>
     <t>2.6000</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -743,7 +767,7 @@
     <t>11.7600</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t/>
@@ -764,13 +788,13 @@
     <t>114.8000</t>
   </si>
   <si>
-    <t>42.4000</t>
+    <t>43.3200</t>
   </si>
   <si>
     <t>22.5700</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -797,7 +821,7 @@
     <t>55.6600</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>R3</t>
@@ -812,7 +836,7 @@
     <t>61.9500</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>R1</t>
@@ -827,7 +851,7 @@
     <t>56.0200</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -839,7 +863,7 @@
     <t>58.9500</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -875,7 +899,7 @@
     <t>7.5000</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>SW5</t>
@@ -887,7 +911,7 @@
     <t>78.7500</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>SW6</t>
@@ -896,7 +920,7 @@
     <t>153.7500</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW1</t>
@@ -908,7 +932,7 @@
     <t>60.5000</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW2</t>
@@ -917,7 +941,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW3</t>
@@ -926,7 +950,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -959,9 +983,6 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW7</t>
   </si>
   <si>
@@ -971,6 +992,9 @@
     <t>40.2500</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
   </si>
   <si>
@@ -1004,7 +1028,7 @@
     <t>6.6800</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Pico</t>
@@ -1070,7 +1094,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>69 (0 SMD/ 67 THT)</t>
+    <t>70 (0 SMD/ 68 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1130,7 +1154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1181,12 +1205,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1204,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1237,9 +1255,6 @@
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1588,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1623,7 +1638,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1647,55 +1662,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F2" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1703,16 +1718,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F6" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2241,7 +2256,7 @@
         <v>109</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -2261,28 +2276,28 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>22</v>
@@ -2294,7 +2309,7 @@
         <v>31</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>33</v>
@@ -2303,13 +2318,13 @@
         <v>81</v>
       </c>
       <c r="O16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="P16" s="10" t="s">
-        <v>120</v>
-      </c>
       <c r="Q16" s="10" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>38</v>
@@ -2321,66 +2336,66 @@
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="V16" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="V16" s="10" t="s">
+    </row>
+    <row r="17" spans="1:22" ht="60" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="30" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="I17" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N17" s="5" t="s">
+      <c r="P17" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R17" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>39</v>
@@ -2389,10 +2404,10 @@
         <v>40</v>
       </c>
       <c r="U17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="V17" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="V17" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="30" customHeight="1">
@@ -2400,13 +2415,13 @@
         <v>94</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>138</v>
@@ -2421,10 +2436,10 @@
         <v>93</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>31</v>
@@ -2433,10 +2448,10 @@
         <v>141</v>
       </c>
       <c r="M18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="O18" s="10" t="s">
         <v>143</v>
@@ -2445,10 +2460,10 @@
         <v>144</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>39</v>
@@ -2457,36 +2472,36 @@
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="V18" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="V18" s="10" t="s">
+    </row>
+    <row r="19" spans="1:22" ht="30" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="60" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -2498,25 +2513,25 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>39</v>
@@ -2525,66 +2540,66 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="30" customHeight="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="60" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="H20" s="10" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -2593,33 +2608,33 @@
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="V20" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" s="5" t="s">
+      <c r="D21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="F21" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>93</v>
@@ -2634,7 +2649,7 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>48</v>
@@ -2643,122 +2658,122 @@
         <v>34</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="R21" s="7" t="s">
         <v>38</v>
       </c>
       <c r="S21" s="7" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="T21" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="V21" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="V21" s="7" t="s">
+      <c r="C22" s="10" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="D22" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="F22" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>93</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="D23" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -2770,7 +2785,7 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>48</v>
@@ -2779,16 +2794,16 @@
         <v>81</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>200</v>
+        <v>98</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>39</v>
@@ -2797,24 +2812,24 @@
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="V23" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="30" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="V23" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
-      <c r="A24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>137</v>
-      </c>
       <c r="D24" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>203</v>
@@ -2826,7 +2841,7 @@
         <v>205</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>22</v>
@@ -2841,7 +2856,7 @@
         <v>206</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>81</v>
@@ -2853,10 +2868,10 @@
         <v>208</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="S24" s="10" t="s">
         <v>39</v>
@@ -2865,33 +2880,33 @@
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="V24" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="F25" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>93</v>
@@ -2906,25 +2921,25 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>39</v>
@@ -2933,36 +2948,36 @@
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="D26" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="F26" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>224</v>
-      </c>
       <c r="H26" s="10" t="s">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>22</v>
@@ -2974,25 +2989,25 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>39</v>
@@ -3001,63 +3016,63 @@
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>229</v>
+        <v>133</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="R27" s="7" t="s">
         <v>38</v>
@@ -3069,63 +3084,63 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="V27" s="7" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="30" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="V27" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
-      <c r="A28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="D28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>242</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>244</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>243</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="M28" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O28" s="10" t="s">
+      <c r="P28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="P28" s="10" t="s">
-        <v>248</v>
-      </c>
       <c r="Q28" s="10" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>38</v>
@@ -3137,36 +3152,36 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>255</v>
+      <c r="H29" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>
@@ -3178,22 +3193,22 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>38</v>
@@ -3205,36 +3220,36 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>42</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>251</v>
-      </c>
       <c r="C30" s="10" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>22</v>
@@ -3246,7 +3261,7 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>48</v>
@@ -3255,10 +3270,10 @@
         <v>81</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>52</v>
@@ -3273,7 +3288,7 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="V30" s="10" t="s">
         <v>42</v>
@@ -3281,28 +3296,28 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>22</v>
@@ -3314,7 +3329,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>48</v>
@@ -3323,13 +3338,13 @@
         <v>81</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>38</v>
@@ -3341,7 +3356,7 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>42</v>
@@ -3349,55 +3364,55 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>38</v>
@@ -3409,60 +3424,60 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="V32" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="30" customHeight="1">
+    <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>93</v>
+        <v>263</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>52</v>
@@ -3477,33 +3492,33 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>284</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>287</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>93</v>
@@ -3518,7 +3533,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
@@ -3527,10 +3542,10 @@
         <v>81</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>52</v>
@@ -3545,33 +3560,33 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>24</v>
+        <v>295</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>93</v>
@@ -3586,7 +3601,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
@@ -3595,10 +3610,10 @@
         <v>81</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>52</v>
@@ -3613,33 +3628,33 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>294</v>
+        <v>24</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>93</v>
@@ -3654,7 +3669,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3663,10 +3678,10 @@
         <v>81</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>52</v>
@@ -3681,33 +3696,33 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>93</v>
@@ -3722,7 +3737,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3731,10 +3746,10 @@
         <v>81</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -3749,33 +3764,33 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>93</v>
@@ -3790,7 +3805,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3799,10 +3814,10 @@
         <v>81</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>52</v>
@@ -3817,33 +3832,33 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>25</v>
+        <v>284</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>93</v>
@@ -3858,7 +3873,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -3867,10 +3882,10 @@
         <v>81</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -3885,33 +3900,33 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>315</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>307</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>93</v>
@@ -3926,7 +3941,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -3935,10 +3950,10 @@
         <v>81</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>52</v>
@@ -3953,36 +3968,36 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>319</v>
+        <v>25</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>322</v>
+        <v>93</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>22</v>
@@ -3994,7 +4009,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4003,13 +4018,13 @@
         <v>81</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="R41" s="7" t="s">
         <v>38</v>
@@ -4021,36 +4036,36 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="F42" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>22</v>
@@ -4062,7 +4077,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4071,16 +4086,16 @@
         <v>81</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R42" s="10" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="S42" s="10" t="s">
         <v>39</v>
@@ -4089,10 +4104,78 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="V42" s="10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="30" customHeight="1">
+      <c r="A43" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="V42" s="10" t="s">
-        <v>209</v>
+      <c r="B43" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R43" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T43" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U43" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="V43" s="7" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -4118,22 +4201,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
-        <v>357</v>
+      <c r="A4" s="11" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="365">
   <si>
     <t>Row</t>
   </si>
@@ -344,46 +344,49 @@
     <t>https://media.digikey.com/pdf/Data%20Sheets/Bel%20Fuse%20PDFs/0ZRP_Series.pdf</t>
   </si>
   <si>
-    <t>144.9000</t>
-  </si>
-  <si>
-    <t>95.6000</t>
+    <t>144.8000</t>
+  </si>
+  <si>
+    <t>97.3000</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>DC Barrel Jack with a mounting pin</t>
+    <t>DC Barrel Jack with an internal switch</t>
+  </si>
+  <si>
+    <t>Barrel_Jack_Switch</t>
+  </si>
+  <si>
+    <t>Connector</t>
+  </si>
+  <si>
+    <t>J13</t>
   </si>
   <si>
     <t>Barrel_Jack_MountingPin</t>
   </si>
   <si>
-    <t>Connector</t>
-  </si>
-  <si>
-    <t>J13</t>
-  </si>
-  <si>
-    <t>BarrelJack_CUI_PJ-063AH_Horizontal</t>
+    <t>BarrelJack_Wuerth_6941xx301002</t>
   </si>
   <si>
     <t>Connector_BarrelJack</t>
   </si>
   <si>
-    <t>https://www.cuidevices.com/product/resource/pj-063ah.pdf</t>
-  </si>
-  <si>
-    <t>161.9000</t>
-  </si>
-  <si>
-    <t>94.7000</t>
-  </si>
-  <si>
-    <t>11.0000</t>
-  </si>
-  <si>
-    <t>10.8000</t>
+    <t>~</t>
+  </si>
+  <si>
+    <t>159.4000</t>
+  </si>
+  <si>
+    <t>94.6000</t>
+  </si>
+  <si>
+    <t>7.9000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
   </si>
   <si>
     <t>9</t>
@@ -407,9 +410,6 @@
     <t>Connector_PinHeader_2.54mm</t>
   </si>
   <si>
-    <t>~</t>
-  </si>
-  <si>
     <t>118.0000</t>
   </si>
   <si>
@@ -729,9 +729,6 @@
   </si>
   <si>
     <t>270.0000</t>
-  </si>
-  <si>
-    <t>7.6000</t>
   </si>
   <si>
     <t>2.6000</t>
@@ -1154,7 +1151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1205,6 +1202,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF8A8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1222,7 +1225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1255,6 +1258,9 @@
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1614,7 +1620,7 @@
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
@@ -1638,7 +1644,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1662,13 +1668,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>347</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F2" s="3">
         <v>35</v>
@@ -1676,41 +1682,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>349</v>
-      </c>
       <c r="E3" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1718,13 +1724,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>355</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F6" s="3">
         <v>70</v>
@@ -2291,13 +2297,13 @@
         <v>114</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>22</v>
@@ -2308,8 +2314,8 @@
       <c r="K16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>117</v>
+      <c r="L16" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>33</v>
@@ -2318,10 +2324,10 @@
         <v>81</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>37</v>
@@ -2336,36 +2342,36 @@
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="60" customHeight="1">
       <c r="A17" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
@@ -2376,8 +2382,8 @@
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>129</v>
+      <c r="L17" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>33</v>
@@ -2557,7 +2563,7 @@
         <v>160</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>161</v>
@@ -2569,7 +2575,7 @@
         <v>163</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>22</v>
@@ -2841,7 +2847,7 @@
         <v>205</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>22</v>
@@ -3084,33 +3090,33 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="V27" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="V27" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>244</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>232</v>
@@ -3125,7 +3131,7 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M28" s="10" t="s">
         <v>48</v>
@@ -3134,10 +3140,10 @@
         <v>142</v>
       </c>
       <c r="O28" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="P28" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="P28" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>236</v>
@@ -3152,7 +3158,7 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V28" s="10" t="s">
         <v>42</v>
@@ -3160,28 +3166,28 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="C29" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="D29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>250</v>
+      <c r="H29" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>
@@ -3193,7 +3199,7 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>33</v>
@@ -3202,10 +3208,10 @@
         <v>81</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>236</v>
@@ -3220,36 +3226,36 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>94</v>
       </c>
       <c r="G30" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>22</v>
@@ -3261,7 +3267,7 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>48</v>
@@ -3270,10 +3276,10 @@
         <v>81</v>
       </c>
       <c r="O30" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="P30" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>52</v>
@@ -3288,7 +3294,7 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V30" s="10" t="s">
         <v>42</v>
@@ -3296,28 +3302,28 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="G31" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>22</v>
@@ -3329,7 +3335,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>48</v>
@@ -3338,10 +3344,10 @@
         <v>81</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>52</v>
@@ -3356,7 +3362,7 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>42</v>
@@ -3364,28 +3370,28 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="G32" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>262</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>22</v>
@@ -3397,7 +3403,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>48</v>
@@ -3406,10 +3412,10 @@
         <v>81</v>
       </c>
       <c r="O32" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="P32" s="10" t="s">
         <v>275</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>276</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>37</v>
@@ -3424,7 +3430,7 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V32" s="10" t="s">
         <v>42</v>
@@ -3432,28 +3438,28 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F33" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="G33" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>30</v>
@@ -3465,7 +3471,7 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>48</v>
@@ -3474,10 +3480,10 @@
         <v>34</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>52</v>
@@ -3492,7 +3498,7 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>42</v>
@@ -3500,25 +3506,25 @@
     </row>
     <row r="34" spans="1:22" ht="30" customHeight="1">
       <c r="A34" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="D34" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="F34" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>286</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>287</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>93</v>
@@ -3533,7 +3539,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
@@ -3542,10 +3548,10 @@
         <v>81</v>
       </c>
       <c r="O34" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="P34" s="10" t="s">
         <v>289</v>
-      </c>
-      <c r="P34" s="10" t="s">
-        <v>290</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>52</v>
@@ -3560,33 +3566,33 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="V34" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="V34" s="10" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E35" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E35" s="7" t="s">
+      <c r="F35" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>93</v>
@@ -3601,7 +3607,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
@@ -3610,10 +3616,10 @@
         <v>81</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>52</v>
@@ -3628,33 +3634,33 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="V35" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="V35" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="F36" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H36" s="10" t="s">
         <v>93</v>
@@ -3669,7 +3675,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3678,10 +3684,10 @@
         <v>81</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>52</v>
@@ -3696,33 +3702,33 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="V36" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="V36" s="10" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E37" s="7" t="s">
+      <c r="F37" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="G37" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>93</v>
@@ -3737,7 +3743,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3746,10 +3752,10 @@
         <v>81</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -3764,33 +3770,33 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="V37" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="V37" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="F38" s="10" t="s">
-        <v>306</v>
-      </c>
       <c r="G38" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>93</v>
@@ -3805,7 +3811,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3814,10 +3820,10 @@
         <v>81</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>52</v>
@@ -3832,33 +3838,33 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="V38" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="V38" s="10" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="7" t="s">
+      <c r="F39" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="G39" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>93</v>
@@ -3873,7 +3879,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -3882,10 +3888,10 @@
         <v>81</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -3900,33 +3906,33 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="V39" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="V39" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="C40" s="10" t="s">
         <v>311</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>312</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E40" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="G40" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>93</v>
@@ -3941,7 +3947,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -3950,10 +3956,10 @@
         <v>81</v>
       </c>
       <c r="O40" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="P40" s="10" t="s">
         <v>317</v>
-      </c>
-      <c r="P40" s="10" t="s">
-        <v>318</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>52</v>
@@ -3968,33 +3974,33 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="V40" s="10" t="s">
         <v>319</v>
-      </c>
-      <c r="V40" s="10" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>322</v>
-      </c>
       <c r="G41" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>93</v>
@@ -4009,7 +4015,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4018,10 +4024,10 @@
         <v>81</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>52</v>
@@ -4036,36 +4042,36 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="V41" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="V41" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="C42" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="D42" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="E42" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="F42" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="G42" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>329</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>330</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>22</v>
@@ -4077,7 +4083,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4086,10 +4092,10 @@
         <v>81</v>
       </c>
       <c r="O42" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="P42" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>333</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>37</v>
@@ -4104,33 +4110,33 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="V42" s="10" t="s">
         <v>334</v>
-      </c>
-      <c r="V42" s="10" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>93</v>
@@ -4145,7 +4151,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
@@ -4154,10 +4160,10 @@
         <v>81</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>84</v>
@@ -4172,7 +4178,7 @@
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="V43" s="7" t="s">
         <v>216</v>
@@ -4201,22 +4207,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="12" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -371,43 +371,43 @@
     <t>BarrelJack_Wuerth_6941xx301002</t>
   </si>
   <si>
-    <t>Connector_BarrelJack</t>
+    <t>https://www.we-online.com/components/products/datasheet/6941xx301002.pdf</t>
+  </si>
+  <si>
+    <t>159.4000</t>
+  </si>
+  <si>
+    <t>94.6000</t>
+  </si>
+  <si>
+    <t>7.9000</t>
+  </si>
+  <si>
+    <t>7.6000</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x01</t>
+  </si>
+  <si>
+    <t>Connector_Generic</t>
+  </si>
+  <si>
+    <t>J14</t>
+  </si>
+  <si>
+    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm</t>
   </si>
   <si>
     <t>~</t>
-  </si>
-  <si>
-    <t>159.4000</t>
-  </si>
-  <si>
-    <t>94.6000</t>
-  </si>
-  <si>
-    <t>7.9000</t>
-  </si>
-  <si>
-    <t>7.6000</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
-  </si>
-  <si>
-    <t>Conn_02x01</t>
-  </si>
-  <si>
-    <t>Connector_Generic</t>
-  </si>
-  <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>PinHeader_1x02_P2.54mm_Horizontal</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.54mm</t>
   </si>
   <si>
     <t>118.0000</t>
@@ -1151,7 +1151,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1202,12 +1202,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1225,7 +1219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1258,9 +1252,6 @@
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2280,7 +2271,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" ht="30" customHeight="1">
       <c r="A16" s="8" t="s">
         <v>110</v>
       </c>
@@ -2303,7 +2294,7 @@
         <v>116</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>22</v>
@@ -2314,8 +2305,8 @@
       <c r="K16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="11" t="s">
-        <v>118</v>
+      <c r="L16" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>33</v>
@@ -2324,10 +2315,10 @@
         <v>81</v>
       </c>
       <c r="O16" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="P16" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>37</v>
@@ -2342,36 +2333,36 @@
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="V16" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="60" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
@@ -2382,8 +2373,8 @@
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>118</v>
+      <c r="L17" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>33</v>
@@ -2563,7 +2554,7 @@
         <v>160</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>161</v>
@@ -2575,7 +2566,7 @@
         <v>163</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>22</v>
@@ -2847,7 +2838,7 @@
         <v>205</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>22</v>
@@ -3090,7 +3081,7 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>237</v>
@@ -3168,7 +3159,7 @@
       <c r="A29" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3186,7 +3177,7 @@
       <c r="G29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="11" t="s">
         <v>249</v>
       </c>
       <c r="I29" s="5" t="s">
@@ -4120,7 +4111,7 @@
       <c r="A43" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -4221,7 +4212,7 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>364</v>
       </c>
     </row>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -188,7 +188,7 @@
     <t>C16 C17</t>
   </si>
   <si>
-    <t>4.7uF 50V</t>
+    <t>4.7uF</t>
   </si>
   <si>
     <t>C_Disc_D5.1mm_W3.2mm_P5.00mm</t>
@@ -746,7 +746,7 @@
     <t>L1 L2 L3 L4 L5</t>
   </si>
   <si>
-    <t>1K@100MHz</t>
+    <t>103_100MHz</t>
   </si>
   <si>
     <t>L_Axial_L6.6mm_D2.7mm_P10.16mm_Horizontal_Vishay_IM-2</t>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -119,7 +119,7 @@
     <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C101K1G5TA7301.pdf</t>
   </si>
   <si>
-    <t>/psu</t>
+    <t>/Power Supply</t>
   </si>
   <si>
     <t>pedalboard-hw(2)</t>
@@ -407,7 +407,7 @@
     <t>Connector_PinHeader_2.54mm</t>
   </si>
   <si>
-    <t>~</t>
+    <t>https://cdn.amphenol-cs.com/media/wysiwyg/files/drawing/68015.pdf</t>
   </si>
   <si>
     <t>118.0000</t>
@@ -2373,7 +2373,7 @@
       <c r="K17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="7" t="s">
         <v>129</v>
       </c>
       <c r="M17" s="7" t="s">

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -119,7 +119,7 @@
     <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C101K1G5TA7301.pdf</t>
   </si>
   <si>
-    <t>/Power Supply</t>
+    <t>/psu</t>
   </si>
   <si>
     <t>pedalboard-hw(2)</t>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -119,7 +119,7 @@
     <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C101K1G5TA7301.pdf</t>
   </si>
   <si>
-    <t>/psu</t>
+    <t>/Power Supply</t>
   </si>
   <si>
     <t>pedalboard-hw(2)</t>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1070,7 +1070,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Date:</t>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1070,7 +1070,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Date:</t>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -443,7 +443,7 @@
     <t>Jack_6.35mm_Horizontal</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/de/products/detail/schurter-inc/4833-2320/2644235</t>
+    <t>https://www.schurter.com/en/datasheet/typ_4833.2320.pdf</t>
   </si>
   <si>
     <t>pedalboard-hw(5)</t>
@@ -575,7 +575,7 @@
     <t>CP-2350</t>
   </si>
   <si>
-    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf?5023</t>
+    <t>https://www.switchcraft.com/assets/1/24/57PC5F_CD.pdf</t>
   </si>
   <si>
     <t>103.0000</t>
@@ -3177,8 +3177,8 @@
       <c r="G29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>249</v>
+      <c r="H29" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -692,7 +692,7 @@
     <t>93.6250</t>
   </si>
   <si>
-    <t>35.0150</t>
+    <t>27.2200</t>
   </si>
   <si>
     <t>9.3200</t>
@@ -3001,7 +3001,7 @@
         <v>224</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>132</v>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1070,7 +1070,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Date:</t>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="375">
   <si>
     <t>Row</t>
   </si>
@@ -197,7 +197,7 @@
     <t>https://connect.kemet.com:7667/gateway/IntelliData-ComponentDocumentation/1.0/download/datasheet/C322C102K1R5TA.pdf</t>
   </si>
   <si>
-    <t>139.9000</t>
+    <t>138.6376</t>
   </si>
   <si>
     <t>80.4000</t>
@@ -227,7 +227,7 @@
     <t>pedalboard-hw(3)</t>
   </si>
   <si>
-    <t>139.8323</t>
+    <t>138.5699</t>
   </si>
   <si>
     <t>87.5000</t>
@@ -281,6 +281,36 @@
     <t>6</t>
   </si>
   <si>
+    <t>100V 3A General Purpose Rectifier Diode, DO-201AD</t>
+  </si>
+  <si>
+    <t>1N5401</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>D_DO-201AD_P15.24mm_Horizontal</t>
+  </si>
+  <si>
+    <t>http://www.vishay.com/docs/88516/1n5400.pdf</t>
+  </si>
+  <si>
+    <t>135.1940</t>
+  </si>
+  <si>
+    <t>96.1964</t>
+  </si>
+  <si>
+    <t>18.4400</t>
+  </si>
+  <si>
+    <t>3.2000</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
   </si>
   <si>
@@ -323,7 +353,7 @@
     <t>1.8000</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -341,16 +371,16 @@
     <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
   </si>
   <si>
-    <t>https://media.digikey.com/pdf/Data%20Sheets/Bel%20Fuse%20PDFs/0ZRP_Series.pdf</t>
-  </si>
-  <si>
-    <t>144.8000</t>
-  </si>
-  <si>
-    <t>97.3000</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>https://www.onsemi.com/pdf/datasheet/1n5400-d.pdf</t>
+  </si>
+  <si>
+    <t>142.0012</t>
+  </si>
+  <si>
+    <t>101.2256</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>DC Barrel Jack with an internal switch</t>
@@ -386,9 +416,6 @@
     <t>7.6000</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -425,6 +452,9 @@
     <t>4.2400</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -461,9 +491,6 @@
     <t>19.2300</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
   </si>
   <si>
@@ -497,6 +524,9 @@
     <t>55.0150</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -524,7 +554,7 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -557,7 +587,7 @@
     <t>6.7000</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -590,7 +620,7 @@
     <t>14.7500</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -620,7 +650,7 @@
     <t>3.3500</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -647,7 +677,7 @@
     <t>42.2100</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>J7</t>
@@ -671,7 +701,7 @@
     <t>49.9600</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -698,7 +728,7 @@
     <t>9.3200</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -734,7 +764,7 @@
     <t>2.6000</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -764,7 +794,7 @@
     <t>11.7600</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t/>
@@ -791,7 +821,7 @@
     <t>22.5700</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -818,7 +848,7 @@
     <t>55.6600</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>R3</t>
@@ -833,7 +863,7 @@
     <t>61.9500</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>R1</t>
@@ -848,7 +878,7 @@
     <t>56.0200</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -860,7 +890,7 @@
     <t>58.9500</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -896,7 +926,7 @@
     <t>7.5000</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>SW5</t>
@@ -908,7 +938,7 @@
     <t>78.7500</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW6</t>
@@ -917,7 +947,7 @@
     <t>153.7500</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW1</t>
@@ -929,7 +959,7 @@
     <t>60.5000</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW2</t>
@@ -938,7 +968,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW3</t>
@@ -947,9 +977,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
   </si>
   <si>
@@ -980,6 +1007,9 @@
     <t>14.4000</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>SW7</t>
   </si>
   <si>
@@ -989,7 +1019,7 @@
     <t>40.2500</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -1025,7 +1055,7 @@
     <t>6.6800</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Pico</t>
@@ -1091,7 +1121,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>70 (0 SMD/ 68 THT)</t>
+    <t>71 (0 SMD/ 69 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1151,7 +1181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1202,6 +1232,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF8A8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1219,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1252,6 +1288,9 @@
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1600,7 +1639,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1635,7 +1674,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1659,55 +1698,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="F2" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1715,16 +1754,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="F6" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2135,7 +2174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="30" customHeight="1">
+    <row r="14" spans="1:22">
       <c r="A14" s="8" t="s">
         <v>86</v>
       </c>
@@ -2146,43 +2185,43 @@
         <v>88</v>
       </c>
       <c r="D14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="F14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="H14" s="10" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P14" s="10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>52</v>
@@ -2197,63 +2236,63 @@
         <v>40</v>
       </c>
       <c r="U14" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="H15" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="J15" s="5" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="M15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P15" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="Q15" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -2265,24 +2304,24 @@
         <v>40</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="30" customHeight="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>114</v>
@@ -2294,7 +2333,7 @@
         <v>116</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>22</v>
@@ -2333,36 +2372,36 @@
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="30" customHeight="1">
+      <c r="A17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="V16" s="10" t="s">
+      <c r="B17" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="60" customHeight="1">
-      <c r="A17" s="5" t="s">
+      <c r="C17" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="D17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="F17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="H17" s="7" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
@@ -2374,7 +2413,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>33</v>
@@ -2383,16 +2422,16 @@
         <v>81</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R17" s="7" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="S17" s="7" t="s">
         <v>39</v>
@@ -2401,66 +2440,66 @@
         <v>40</v>
       </c>
       <c r="U17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="V17" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="60" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="D18" s="10" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="E18" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="F18" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="I18" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="O18" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>39</v>
@@ -2469,66 +2508,66 @@
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="H19" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="N19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>39</v>
@@ -2537,36 +2576,36 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="60" customHeight="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="30" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>163</v>
-      </c>
       <c r="H20" s="10" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>22</v>
@@ -2578,25 +2617,25 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>48</v>
+        <v>163</v>
       </c>
       <c r="N20" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O20" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>166</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -2605,13 +2644,13 @@
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="V20" s="10" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="30" customHeight="1">
+    <row r="21" spans="1:22" ht="60" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>168</v>
       </c>
@@ -2622,7 +2661,7 @@
         <v>170</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>171</v>
@@ -2634,13 +2673,13 @@
         <v>173</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>31</v>
@@ -2652,7 +2691,7 @@
         <v>48</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>175</v>
@@ -2664,7 +2703,7 @@
         <v>37</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>39</v>
@@ -2673,36 +2712,36 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="V21" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="V21" s="7" t="s">
+    </row>
+    <row r="22" spans="1:22" ht="30" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>184</v>
-      </c>
       <c r="H22" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>30</v>
@@ -2714,7 +2753,7 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>48</v>
@@ -2723,7 +2762,7 @@
         <v>34</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P22" s="10" t="s">
         <v>186</v>
@@ -2735,75 +2774,75 @@
         <v>38</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>187</v>
+        <v>39</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="V22" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="V22" s="10" t="s">
+    </row>
+    <row r="23" spans="1:22">
+      <c r="A23" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="30" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>39</v>
+        <v>197</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>40</v>
@@ -2826,7 +2865,7 @@
         <v>202</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>203</v>
@@ -2838,7 +2877,7 @@
         <v>205</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>22</v>
@@ -2862,13 +2901,13 @@
         <v>207</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="S24" s="10" t="s">
         <v>39</v>
@@ -2877,36 +2916,36 @@
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>133</v>
+        <v>208</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>22</v>
@@ -2918,25 +2957,25 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>39</v>
@@ -2945,36 +2984,36 @@
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>219</v>
+        <v>158</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>220</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>22</v>
@@ -2986,25 +3025,25 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>39</v>
@@ -3013,36 +3052,36 @@
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>231</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -3054,25 +3093,25 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P27" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="Q27" s="7" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>39</v>
@@ -3081,63 +3120,63 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="D28" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="G28" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="I28" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K28" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O28" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="M28" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N28" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="O28" s="10" t="s">
+      <c r="P28" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="P28" s="10" t="s">
+      <c r="Q28" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="R28" s="10" t="s">
         <v>38</v>
@@ -3149,63 +3188,63 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="V28" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="V28" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22">
+    </row>
+    <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="6" t="s">
         <v>249</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>250</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>251</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>38</v>
@@ -3217,36 +3256,36 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>256</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B30" s="9" t="s">
         <v>258</v>
       </c>
+      <c r="B30" s="11" t="s">
+        <v>259</v>
+      </c>
       <c r="C30" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>94</v>
-      </c>
       <c r="G30" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>262</v>
+        <v>103</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>22</v>
@@ -3261,7 +3300,7 @@
         <v>263</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>81</v>
@@ -3273,7 +3312,7 @@
         <v>265</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>38</v>
@@ -3285,36 +3324,36 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>22</v>
@@ -3326,7 +3365,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>48</v>
@@ -3335,10 +3374,10 @@
         <v>81</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>52</v>
@@ -3353,7 +3392,7 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>42</v>
@@ -3361,28 +3400,28 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H32" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>262</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>22</v>
@@ -3394,7 +3433,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>48</v>
@@ -3403,13 +3442,13 @@
         <v>81</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>38</v>
@@ -3421,7 +3460,7 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="V32" s="10" t="s">
         <v>42</v>
@@ -3429,55 +3468,55 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>38</v>
@@ -3489,57 +3528,57 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="30" customHeight="1">
+    <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>93</v>
+        <v>272</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="P34" s="10" t="s">
         <v>289</v>
@@ -3557,36 +3596,36 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>291</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="30" customHeight="1">
       <c r="A35" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>282</v>
-      </c>
       <c r="D35" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>22</v>
@@ -3598,7 +3637,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
@@ -3607,10 +3646,10 @@
         <v>81</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>52</v>
@@ -3625,36 +3664,36 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>286</v>
-      </c>
       <c r="H36" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>22</v>
@@ -3666,7 +3705,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3675,10 +3714,10 @@
         <v>81</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>52</v>
@@ -3693,36 +3732,36 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>301</v>
+        <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>22</v>
@@ -3734,7 +3773,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3743,10 +3782,10 @@
         <v>81</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -3761,36 +3800,36 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>22</v>
@@ -3802,7 +3841,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3811,10 +3850,10 @@
         <v>81</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>52</v>
@@ -3829,36 +3868,36 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -3870,7 +3909,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -3879,10 +3918,10 @@
         <v>81</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -3897,36 +3936,36 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>25</v>
+        <v>293</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>22</v>
@@ -3938,7 +3977,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -3947,10 +3986,10 @@
         <v>81</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>52</v>
@@ -3965,36 +4004,36 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>22</v>
@@ -4006,7 +4045,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4015,10 +4054,10 @@
         <v>81</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>52</v>
@@ -4033,36 +4072,36 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>328</v>
-      </c>
       <c r="H42" s="10" t="s">
-        <v>329</v>
+        <v>103</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>22</v>
@@ -4074,7 +4113,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4083,13 +4122,13 @@
         <v>81</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R42" s="10" t="s">
         <v>38</v>
@@ -4101,36 +4140,36 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="D43" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="E43" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="H43" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>22</v>
@@ -4157,10 +4196,10 @@
         <v>342</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R43" s="7" t="s">
-        <v>132</v>
+        <v>38</v>
       </c>
       <c r="S43" s="7" t="s">
         <v>39</v>
@@ -4172,7 +4211,75 @@
         <v>343</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>216</v>
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="30" customHeight="1">
+      <c r="A44" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R44" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="S44" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T44" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U44" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="V44" s="10" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -4198,22 +4305,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>364</v>
+      <c r="A4" s="12" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -335,7 +335,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>https://cdn.sparkfun.com/datasheets/Components/LED/COM-12877.pdf</t>
+    <t>https://cdn.sparkfun.com/assets/6/9/0/f/3/DS-12999-LED_-_RGB_Addressable__PTH__5mm_Clear__5_Pack_.pdf</t>
   </si>
   <si>
     <t>pedalboard-hw(10)</t>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="385">
   <si>
     <t>Row</t>
   </si>
@@ -311,6 +311,39 @@
     <t>7</t>
   </si>
   <si>
+    <t>20V 1A Schottky Barrier Rectifier Diode, DO-41</t>
+  </si>
+  <si>
+    <t>1N5817</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D_DO-41_SOD81_P10.16mm_Horizontal</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/1n5817-d.pdf</t>
+  </si>
+  <si>
+    <t>129.6060</t>
+  </si>
+  <si>
+    <t>81.9216</t>
+  </si>
+  <si>
+    <t>270.0000</t>
+  </si>
+  <si>
+    <t>12.3600</t>
+  </si>
+  <si>
+    <t>2.2000</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>RGB LED with integrated controller, 5mm/8mm LED package</t>
   </si>
   <si>
@@ -353,7 +386,7 @@
     <t>1.8000</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>Resettable fuse, polymeric positive temperature coefficient</t>
@@ -380,9 +413,6 @@
     <t>101.2256</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>DC Barrel Jack with an internal switch</t>
   </si>
   <si>
@@ -416,6 +446,9 @@
     <t>7.6000</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -452,9 +485,6 @@
     <t>4.2400</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -491,6 +521,9 @@
     <t>19.2300</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
   </si>
   <si>
@@ -524,7 +557,7 @@
     <t>55.0150</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -554,7 +587,7 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -587,7 +620,7 @@
     <t>6.7000</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -620,7 +653,7 @@
     <t>14.7500</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -650,7 +683,7 @@
     <t>3.3500</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -677,7 +710,7 @@
     <t>42.2100</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>J7</t>
@@ -701,7 +734,7 @@
     <t>49.9600</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -728,7 +761,7 @@
     <t>9.3200</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -758,13 +791,10 @@
     <t>74.7000</t>
   </si>
   <si>
-    <t>270.0000</t>
-  </si>
-  <si>
     <t>2.6000</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -794,7 +824,7 @@
     <t>11.7600</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t/>
@@ -821,7 +851,7 @@
     <t>22.5700</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -848,7 +878,7 @@
     <t>55.6600</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>R3</t>
@@ -863,7 +893,7 @@
     <t>61.9500</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>R1</t>
@@ -878,7 +908,7 @@
     <t>56.0200</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -890,7 +920,7 @@
     <t>58.9500</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -926,7 +956,7 @@
     <t>7.5000</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>SW5</t>
@@ -938,7 +968,7 @@
     <t>78.7500</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW6</t>
@@ -947,7 +977,7 @@
     <t>153.7500</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW1</t>
@@ -959,7 +989,7 @@
     <t>60.5000</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW2</t>
@@ -968,15 +998,15 @@
     <t>E</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW3</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
   </si>
   <si>
@@ -1007,7 +1037,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>SW7</t>
@@ -1019,7 +1049,7 @@
     <t>40.2500</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -1055,7 +1085,7 @@
     <t>6.6800</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>Pico</t>
@@ -1121,7 +1151,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>71 (0 SMD/ 69 THT)</t>
+    <t>72 (0 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1181,7 +1211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1232,12 +1262,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF8A8A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1255,7 +1279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1288,9 +1312,6 @@
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1639,7 +1660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1674,7 +1695,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1698,55 +1719,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F2" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1754,16 +1775,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="F6" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2242,7 +2263,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="30" customHeight="1">
+    <row r="15" spans="1:22">
       <c r="A15" s="5" t="s">
         <v>96</v>
       </c>
@@ -2253,46 +2274,46 @@
         <v>98</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="H15" s="7" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M15" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>38</v>
@@ -2304,54 +2325,54 @@
         <v>40</v>
       </c>
       <c r="U15" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="V15" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="30" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="V15" s="7" t="s">
+      <c r="D16" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="8" t="s">
+      <c r="E16" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="G16" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="H16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="I16" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="J16" s="8" t="s">
-        <v>22</v>
+        <v>115</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="O16" s="10" t="s">
         <v>118</v>
@@ -2360,7 +2381,7 @@
         <v>119</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R16" s="10" t="s">
         <v>38</v>
@@ -2372,36 +2393,36 @@
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="30" customHeight="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="I17" s="5" t="s">
         <v>22</v>
@@ -2413,7 +2434,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>33</v>
@@ -2422,10 +2443,10 @@
         <v>81</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>37</v>
@@ -2440,36 +2461,36 @@
         <v>40</v>
       </c>
       <c r="U17" s="7" t="s">
-        <v>130</v>
+        <v>41</v>
       </c>
       <c r="V17" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="30" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="60" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>136</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="I18" s="8" t="s">
         <v>22</v>
@@ -2481,7 +2502,7 @@
         <v>31</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>33</v>
@@ -2490,16 +2511,16 @@
         <v>81</v>
       </c>
       <c r="O18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="P18" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="P18" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="Q18" s="10" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="S18" s="10" t="s">
         <v>39</v>
@@ -2508,66 +2529,66 @@
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="60" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="V18" s="10" t="s">
+      <c r="B19" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="30" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="C19" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="D19" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="F19" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="I19" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="M19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19" s="5" t="s">
+      <c r="Q19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R19" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>39</v>
@@ -2576,10 +2597,10 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="30" customHeight="1">
@@ -2587,55 +2608,55 @@
         <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G20" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="H20" s="10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="O20" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="N20" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O20" s="10" t="s">
+      <c r="P20" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="P20" s="10" t="s">
-        <v>165</v>
-      </c>
       <c r="Q20" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -2644,36 +2665,36 @@
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V20" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="V20" s="10" t="s">
+    </row>
+    <row r="21" spans="1:22" ht="30" customHeight="1">
+      <c r="A21" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="60" customHeight="1">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>173</v>
-      </c>
       <c r="H21" s="7" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>22</v>
@@ -2685,10 +2706,10 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="M21" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>81</v>
@@ -2703,7 +2724,7 @@
         <v>37</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>39</v>
@@ -2712,66 +2733,66 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="30" customHeight="1">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="60" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -2780,13 +2801,13 @@
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="V22" s="10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" ht="30" customHeight="1">
       <c r="A23" s="5" t="s">
         <v>189</v>
       </c>
@@ -2797,7 +2818,7 @@
         <v>191</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>192</v>
@@ -2809,7 +2830,7 @@
         <v>194</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>30</v>
@@ -2830,10 +2851,10 @@
         <v>34</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
@@ -2842,7 +2863,7 @@
         <v>38</v>
       </c>
       <c r="S23" s="7" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>40</v>
@@ -2854,7 +2875,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="30" customHeight="1">
+    <row r="24" spans="1:22">
       <c r="A24" s="8" t="s">
         <v>200</v>
       </c>
@@ -2865,7 +2886,7 @@
         <v>202</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>203</v>
@@ -2877,13 +2898,13 @@
         <v>205</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>31</v>
@@ -2895,57 +2916,57 @@
         <v>48</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O24" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="P24" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>108</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>22</v>
@@ -2957,7 +2978,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>48</v>
@@ -2966,16 +2987,16 @@
         <v>81</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="S25" s="7" t="s">
         <v>39</v>
@@ -2984,36 +3005,36 @@
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>22</v>
@@ -3025,25 +3046,25 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="N26" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>39</v>
@@ -3052,36 +3073,36 @@
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="30" customHeight="1">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>229</v>
+        <v>169</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -3093,25 +3114,25 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>39</v>
@@ -3120,36 +3141,36 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>240</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>22</v>
@@ -3164,7 +3185,7 @@
         <v>243</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>81</v>
@@ -3176,10 +3197,10 @@
         <v>245</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>39</v>
@@ -3188,42 +3209,42 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="H29" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H29" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="I29" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>31</v>
@@ -3232,10 +3253,10 @@
         <v>254</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>255</v>
@@ -3244,7 +3265,7 @@
         <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="R29" s="7" t="s">
         <v>38</v>
@@ -3256,63 +3277,63 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="V29" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="V29" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22">
+    </row>
+    <row r="30" spans="1:22" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>259</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>260</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>261</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="R30" s="10" t="s">
         <v>38</v>
@@ -3324,36 +3345,36 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>266</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B31" s="6" t="s">
         <v>268</v>
       </c>
+      <c r="B31" s="11" t="s">
+        <v>269</v>
+      </c>
       <c r="C31" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>272</v>
+        <v>114</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>22</v>
@@ -3368,7 +3389,7 @@
         <v>273</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>81</v>
@@ -3380,7 +3401,7 @@
         <v>275</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="R31" s="7" t="s">
         <v>38</v>
@@ -3392,36 +3413,36 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>42</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>278</v>
+        <v>115</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>22</v>
@@ -3433,7 +3454,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>48</v>
@@ -3442,10 +3463,10 @@
         <v>81</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>52</v>
@@ -3460,7 +3481,7 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="V32" s="10" t="s">
         <v>42</v>
@@ -3468,28 +3489,28 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3501,7 +3522,7 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>48</v>
@@ -3510,13 +3531,13 @@
         <v>81</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>38</v>
@@ -3528,7 +3549,7 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>42</v>
@@ -3536,55 +3557,55 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K34" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>38</v>
@@ -3596,57 +3617,57 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="V34" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="30" customHeight="1">
+    <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>293</v>
+        <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>103</v>
+        <v>282</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>299</v>
@@ -3664,36 +3685,36 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>301</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="30" customHeight="1">
       <c r="A36" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>292</v>
-      </c>
       <c r="D36" s="10" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>22</v>
@@ -3705,7 +3726,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3714,10 +3735,10 @@
         <v>81</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>52</v>
@@ -3732,36 +3753,36 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>296</v>
-      </c>
       <c r="H37" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>22</v>
@@ -3773,7 +3794,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3782,10 +3803,10 @@
         <v>81</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -3800,36 +3821,36 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>311</v>
+        <v>24</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I38" s="8" t="s">
         <v>22</v>
@@ -3841,7 +3862,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3850,10 +3871,10 @@
         <v>81</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>52</v>
@@ -3868,36 +3889,36 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>22</v>
@@ -3909,7 +3930,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -3918,10 +3939,10 @@
         <v>81</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -3936,36 +3957,36 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I40" s="8" t="s">
         <v>22</v>
@@ -3977,7 +3998,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -3986,10 +4007,10 @@
         <v>81</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>52</v>
@@ -4004,36 +4025,36 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I41" s="5" t="s">
         <v>22</v>
@@ -4045,7 +4066,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4054,10 +4075,10 @@
         <v>81</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>52</v>
@@ -4072,36 +4093,36 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>319</v>
-      </c>
       <c r="C42" s="10" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>22</v>
@@ -4113,7 +4134,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4122,10 +4143,10 @@
         <v>81</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>52</v>
@@ -4140,36 +4161,36 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="H43" s="7" t="s">
-        <v>339</v>
+        <v>114</v>
       </c>
       <c r="I43" s="5" t="s">
         <v>22</v>
@@ -4181,7 +4202,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
@@ -4190,13 +4211,13 @@
         <v>81</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R43" s="7" t="s">
         <v>38</v>
@@ -4208,36 +4229,36 @@
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="C44" s="10" t="s">
+      <c r="D44" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E44" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="F44" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="G44" s="10" t="s">
+      <c r="H44" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>103</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>22</v>
@@ -4264,10 +4285,10 @@
         <v>352</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R44" s="10" t="s">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="S44" s="10" t="s">
         <v>39</v>
@@ -4279,7 +4300,75 @@
         <v>353</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>226</v>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" ht="30" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R45" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="S45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U45" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="V45" s="7" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4305,22 +4394,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
-        <v>374</v>
+      <c r="A4" s="11" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -704,10 +704,10 @@
     <t>https://www.we-online.com/components/products/datasheet/6130xx11021.pdf</t>
   </si>
   <si>
-    <t>23.6150</t>
-  </si>
-  <si>
-    <t>42.2100</t>
+    <t>35.8650</t>
+  </si>
+  <si>
+    <t>42.0374</t>
   </si>
   <si>
     <t>19</t>
@@ -3061,7 +3061,7 @@
         <v>229</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="R26" s="10" t="s">
         <v>152</v>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1130,7 +1130,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>2.0.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -227,7 +227,7 @@
     <t>pedalboard-hw(3)</t>
   </si>
   <si>
-    <t>138.5699</t>
+    <t>140.5323</t>
   </si>
   <si>
     <t>87.5000</t>
@@ -296,10 +296,10 @@
     <t>http://www.vishay.com/docs/88516/1n5400.pdf</t>
   </si>
   <si>
-    <t>135.1940</t>
-  </si>
-  <si>
-    <t>96.1964</t>
+    <t>134.7000</t>
+  </si>
+  <si>
+    <t>79.1000</t>
   </si>
   <si>
     <t>18.4400</t>
@@ -407,10 +407,10 @@
     <t>https://www.onsemi.com/pdf/datasheet/1n5400-d.pdf</t>
   </si>
   <si>
-    <t>142.0012</t>
-  </si>
-  <si>
-    <t>101.2256</t>
+    <t>151.9000</t>
+  </si>
+  <si>
+    <t>95.2000</t>
   </si>
   <si>
     <t>DC Barrel Jack with an internal switch</t>
@@ -2245,7 +2245,7 @@
         <v>93</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="R14" s="10" t="s">
         <v>38</v>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="395">
   <si>
     <t>Row</t>
   </si>
@@ -413,6 +413,42 @@
     <t>95.2000</t>
   </si>
   <si>
+    <t>Fuse, small symbol</t>
+  </si>
+  <si>
+    <t>Fuse_Small</t>
+  </si>
+  <si>
+    <t>F2 F3</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Trace_Fuse</t>
+  </si>
+  <si>
+    <t>76.2400</t>
+  </si>
+  <si>
+    <t>50.3100</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>4.8860</t>
+  </si>
+  <si>
+    <t>1.5240</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>DC Barrel Jack with an internal switch</t>
   </si>
   <si>
@@ -446,9 +482,6 @@
     <t>7.6000</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
     <t>Generic connector, double row, 02x01, this symbol is compatible with counter-clockwise, top-bottom and odd-even numbering schemes., script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -476,15 +509,15 @@
     <t>67.8250</t>
   </si>
   <si>
-    <t>bottom</t>
-  </si>
-  <si>
     <t>1.7000</t>
   </si>
   <si>
     <t>4.2400</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>M Series, 6.35mm (1/4in) stereo jack, switched, with chrome ferrule and straight PCB pins</t>
   </si>
   <si>
@@ -521,7 +554,7 @@
     <t>19.2300</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>expansion header for Raspberry Pi 2 &amp; 3</t>
@@ -557,7 +590,7 @@
     <t>55.0150</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
@@ -587,7 +620,7 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>15</t>
+    <t>16</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -620,7 +653,7 @@
     <t>6.7000</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -644,16 +677,13 @@
     <t>103.0000</t>
   </si>
   <si>
-    <t>SMD</t>
-  </si>
-  <si>
     <t>17.5000</t>
   </si>
   <si>
     <t>14.7500</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -683,7 +713,7 @@
     <t>3.3500</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -710,7 +740,7 @@
     <t>42.0374</t>
   </si>
   <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>J7</t>
@@ -734,7 +764,7 @@
     <t>49.9600</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -761,7 +791,7 @@
     <t>9.3200</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -794,7 +824,7 @@
     <t>2.6000</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -824,7 +854,7 @@
     <t>11.7600</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t/>
@@ -851,7 +881,7 @@
     <t>22.5700</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -878,7 +908,7 @@
     <t>55.6600</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>R3</t>
@@ -893,7 +923,7 @@
     <t>61.9500</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>R1</t>
@@ -908,7 +938,7 @@
     <t>56.0200</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -920,7 +950,7 @@
     <t>58.9500</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -956,7 +986,7 @@
     <t>7.5000</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>SW5</t>
@@ -968,7 +998,7 @@
     <t>78.7500</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW6</t>
@@ -977,7 +1007,7 @@
     <t>153.7500</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW1</t>
@@ -989,22 +1019,22 @@
     <t>60.5000</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW2</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>SW3</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -1037,7 +1067,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>SW7</t>
@@ -1049,7 +1079,7 @@
     <t>40.2500</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -1085,7 +1115,7 @@
     <t>6.6800</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>Pico</t>
@@ -1151,7 +1181,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>72 (0 SMD/ 70 THT)</t>
+    <t>74 (2 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1211,7 +1241,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1262,6 +1292,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF8A8A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF8080"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1279,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1312,6 +1348,9 @@
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1660,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1695,7 +1734,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1719,55 +1758,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="F2" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1775,16 +1814,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="F6" s="3">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2467,7 +2506,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="30" customHeight="1">
+    <row r="18" spans="1:22">
       <c r="A18" s="8" t="s">
         <v>115</v>
       </c>
@@ -2478,52 +2517,52 @@
         <v>132</v>
       </c>
       <c r="D18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>114</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="M18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="O18" s="10" t="s">
+      <c r="Q18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="P18" s="10" t="s">
+      <c r="S18" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="Q18" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
@@ -2535,7 +2574,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="60" customHeight="1">
+    <row r="19" spans="1:22" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>142</v>
       </c>
@@ -2552,13 +2591,13 @@
         <v>146</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>22</v>
@@ -2585,10 +2624,10 @@
         <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R19" s="7" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="S19" s="7" t="s">
         <v>39</v>
@@ -2597,66 +2636,66 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="V19" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="V19" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="30" customHeight="1">
+    </row>
+    <row r="20" spans="1:22" ht="60" customHeight="1">
       <c r="A20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="I20" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K20" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O20" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="M20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20" s="8" t="s">
+      <c r="P20" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="O20" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>164</v>
-      </c>
       <c r="Q20" s="10" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -2665,66 +2704,66 @@
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>114</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="M21" s="7" t="s">
+      <c r="O21" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="N21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R21" s="7" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="S21" s="7" t="s">
         <v>39</v>
@@ -2733,36 +2772,36 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="V21" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="V21" s="7" t="s">
+    </row>
+    <row r="22" spans="1:22" ht="30" customHeight="1">
+      <c r="A22" s="8" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="60" customHeight="1">
-      <c r="A22" s="8" t="s">
+      <c r="B22" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>181</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>145</v>
       </c>
       <c r="E22" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>184</v>
-      </c>
       <c r="H22" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>22</v>
@@ -2774,10 +2813,10 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>81</v>
@@ -2792,7 +2831,7 @@
         <v>37</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -2801,66 +2840,66 @@
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="30" customHeight="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>39</v>
@@ -2869,13 +2908,13 @@
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>200</v>
       </c>
@@ -2886,7 +2925,7 @@
         <v>202</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>203</v>
@@ -2919,10 +2958,10 @@
         <v>34</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>37</v>
@@ -2931,7 +2970,7 @@
         <v>38</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>40</v>
@@ -2943,7 +2982,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="30" customHeight="1">
+    <row r="25" spans="1:22">
       <c r="A25" s="5" t="s">
         <v>211</v>
       </c>
@@ -2954,7 +2993,7 @@
         <v>213</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>214</v>
@@ -2969,10 +3008,10 @@
         <v>114</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>31</v>
@@ -2984,22 +3023,22 @@
         <v>48</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R25" s="7" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>40</v>
@@ -3022,7 +3061,7 @@
         <v>223</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>224</v>
@@ -3034,7 +3073,7 @@
         <v>226</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>22</v>
@@ -3058,13 +3097,13 @@
         <v>228</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>39</v>
@@ -3073,36 +3112,36 @@
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -3114,25 +3153,25 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>84</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>39</v>
@@ -3141,33 +3180,33 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" ht="30" customHeight="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>239</v>
+        <v>179</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>241</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>114</v>
@@ -3182,25 +3221,25 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>39</v>
@@ -3209,36 +3248,36 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>252</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>253</v>
+        <v>114</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>22</v>
@@ -3250,25 +3289,25 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>39</v>
@@ -3277,42 +3316,42 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="C30" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="H30" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="I30" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K30" s="8" t="s">
         <v>31</v>
@@ -3321,10 +3360,10 @@
         <v>264</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N30" s="8" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="O30" s="10" t="s">
         <v>265</v>
@@ -3345,60 +3384,60 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="V30" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="V30" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22">
+    </row>
+    <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="6" t="s">
         <v>269</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>270</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>270</v>
+        <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>271</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>114</v>
+        <v>263</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>104</v>
@@ -3413,36 +3452,36 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>276</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B32" s="9" t="s">
         <v>278</v>
       </c>
+      <c r="B32" s="11" t="s">
+        <v>279</v>
+      </c>
       <c r="C32" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>25</v>
+        <v>280</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>115</v>
-      </c>
       <c r="G32" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>282</v>
+        <v>114</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>22</v>
@@ -3457,7 +3496,7 @@
         <v>283</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>81</v>
@@ -3469,7 +3508,7 @@
         <v>285</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="R32" s="10" t="s">
         <v>38</v>
@@ -3481,36 +3520,36 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>288</v>
+        <v>115</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3522,7 +3561,7 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>48</v>
@@ -3531,10 +3570,10 @@
         <v>81</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>52</v>
@@ -3549,7 +3588,7 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>42</v>
@@ -3557,28 +3596,28 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>292</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3590,7 +3629,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
@@ -3599,13 +3638,13 @@
         <v>81</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R34" s="10" t="s">
         <v>38</v>
@@ -3617,7 +3656,7 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="V34" s="10" t="s">
         <v>42</v>
@@ -3625,55 +3664,55 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>38</v>
@@ -3685,57 +3724,57 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="30" customHeight="1">
+    <row r="36" spans="1:22">
       <c r="A36" s="8" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>114</v>
+        <v>292</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="P36" s="10" t="s">
         <v>309</v>
@@ -3753,33 +3792,33 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="V36" s="10" t="s">
-        <v>311</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="D37" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>114</v>
@@ -3794,7 +3833,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3803,10 +3842,10 @@
         <v>81</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -3821,33 +3860,33 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>316</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>114</v>
@@ -3862,7 +3901,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3871,10 +3910,10 @@
         <v>81</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>52</v>
@@ -3889,33 +3928,33 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>321</v>
+        <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>114</v>
@@ -3930,7 +3969,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -3939,10 +3978,10 @@
         <v>81</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -3957,33 +3996,33 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>114</v>
@@ -3998,7 +4037,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -4007,10 +4046,10 @@
         <v>81</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>52</v>
@@ -4025,33 +4064,33 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>114</v>
@@ -4066,7 +4105,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4075,10 +4114,10 @@
         <v>81</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>52</v>
@@ -4093,33 +4132,33 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>25</v>
+        <v>313</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>114</v>
@@ -4134,7 +4173,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4143,10 +4182,10 @@
         <v>81</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>52</v>
@@ -4161,33 +4200,33 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="C43" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>114</v>
@@ -4202,7 +4241,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
@@ -4211,10 +4250,10 @@
         <v>81</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>52</v>
@@ -4229,36 +4268,36 @@
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>348</v>
-      </c>
       <c r="H44" s="10" t="s">
-        <v>349</v>
+        <v>114</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>22</v>
@@ -4270,7 +4309,7 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>48</v>
@@ -4279,13 +4318,13 @@
         <v>81</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q44" s="10" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R44" s="10" t="s">
         <v>38</v>
@@ -4297,36 +4336,36 @@
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4353,10 +4392,10 @@
         <v>362</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="S45" s="7" t="s">
         <v>39</v>
@@ -4368,7 +4407,75 @@
         <v>363</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>237</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="30" customHeight="1">
+      <c r="A46" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R46" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S46" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T46" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U46" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="V46" s="10" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4394,22 +4501,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
-        <v>384</v>
+      <c r="A4" s="12" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="396">
   <si>
     <t>Row</t>
   </si>
@@ -419,7 +419,7 @@
     <t>Fuse_Small</t>
   </si>
   <si>
-    <t>F2 F3</t>
+    <t>F2 F3 F4 F5</t>
   </si>
   <si>
     <t>~</t>
@@ -428,6 +428,9 @@
     <t>Trace_Fuse</t>
   </si>
   <si>
+    <t>pedalboard-hw(4)</t>
+  </si>
+  <si>
     <t>76.2400</t>
   </si>
   <si>
@@ -1181,7 +1184,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>74 (2 SMD/ 70 THT)</t>
+    <t>76 (4 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1734,7 +1737,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1758,13 +1761,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F2" s="3">
         <v>38</v>
@@ -1772,41 +1775,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1814,16 +1817,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F6" s="3">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2532,10 +2535,10 @@
         <v>114</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="K18" s="8" t="s">
         <v>31</v>
@@ -2547,54 +2550,54 @@
         <v>48</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>114</v>
@@ -2609,7 +2612,7 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>33</v>
@@ -2618,10 +2621,10 @@
         <v>81</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>37</v>
@@ -2636,10 +2639,10 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="60" customHeight="1">
@@ -2647,25 +2650,25 @@
         <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="G20" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>22</v>
@@ -2677,7 +2680,7 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>33</v>
@@ -2686,16 +2689,16 @@
         <v>81</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -2704,33 +2707,33 @@
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>114</v>
@@ -2745,19 +2748,19 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>52</v>
@@ -2772,33 +2775,33 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>114</v>
@@ -2813,25 +2816,25 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -2840,36 +2843,36 @@
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -2881,7 +2884,7 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>48</v>
@@ -2890,16 +2893,16 @@
         <v>81</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>39</v>
@@ -2908,33 +2911,33 @@
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>114</v>
@@ -2949,7 +2952,7 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>48</v>
@@ -2958,10 +2961,10 @@
         <v>34</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>37</v>
@@ -2976,33 +2979,33 @@
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>114</v>
@@ -3017,7 +3020,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>48</v>
@@ -3026,10 +3029,10 @@
         <v>34</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>37</v>
@@ -3038,39 +3041,39 @@
         <v>38</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>114</v>
@@ -3085,7 +3088,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>48</v>
@@ -3094,7 +3097,7 @@
         <v>81</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P26" s="10" t="s">
         <v>119</v>
@@ -3103,7 +3106,7 @@
         <v>37</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>39</v>
@@ -3112,36 +3115,36 @@
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -3153,7 +3156,7 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>48</v>
@@ -3162,16 +3165,16 @@
         <v>81</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>84</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>39</v>
@@ -3180,33 +3183,33 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="8" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>114</v>
@@ -3221,19 +3224,19 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>84</v>
@@ -3248,33 +3251,33 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>114</v>
@@ -3289,25 +3292,25 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>52</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>39</v>
@@ -3316,36 +3319,36 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>22</v>
@@ -3357,7 +3360,7 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>33</v>
@@ -3366,10 +3369,10 @@
         <v>81</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>104</v>
@@ -3384,36 +3387,36 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>73</v>
@@ -3425,19 +3428,19 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>104</v>
@@ -3452,7 +3455,7 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>42</v>
@@ -3460,25 +3463,25 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>280</v>
-      </c>
       <c r="G32" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>114</v>
@@ -3493,7 +3496,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>33</v>
@@ -3502,10 +3505,10 @@
         <v>81</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>104</v>
@@ -3520,36 +3523,36 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3561,7 +3564,7 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>48</v>
@@ -3570,10 +3573,10 @@
         <v>81</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>52</v>
@@ -3588,7 +3591,7 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>42</v>
@@ -3596,28 +3599,28 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3629,7 +3632,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
@@ -3638,10 +3641,10 @@
         <v>81</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>52</v>
@@ -3656,7 +3659,7 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V34" s="10" t="s">
         <v>42</v>
@@ -3664,28 +3667,28 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>22</v>
@@ -3697,7 +3700,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
@@ -3706,10 +3709,10 @@
         <v>81</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>37</v>
@@ -3724,7 +3727,7 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>42</v>
@@ -3732,28 +3735,28 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>30</v>
@@ -3765,7 +3768,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3774,10 +3777,10 @@
         <v>34</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>52</v>
@@ -3792,7 +3795,7 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V36" s="10" t="s">
         <v>42</v>
@@ -3800,25 +3803,25 @@
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>114</v>
@@ -3833,7 +3836,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3842,10 +3845,10 @@
         <v>81</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -3860,33 +3863,33 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>114</v>
@@ -3901,7 +3904,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3910,10 +3913,10 @@
         <v>81</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>52</v>
@@ -3928,33 +3931,33 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>114</v>
@@ -3969,7 +3972,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -3978,10 +3981,10 @@
         <v>81</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -3996,33 +3999,33 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>114</v>
@@ -4037,7 +4040,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -4046,10 +4049,10 @@
         <v>81</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>52</v>
@@ -4064,33 +4067,33 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>114</v>
@@ -4105,7 +4108,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4114,10 +4117,10 @@
         <v>81</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>52</v>
@@ -4132,33 +4135,33 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>114</v>
@@ -4173,7 +4176,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4182,10 +4185,10 @@
         <v>81</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>52</v>
@@ -4200,33 +4203,33 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>114</v>
@@ -4241,7 +4244,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
@@ -4250,10 +4253,10 @@
         <v>81</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>52</v>
@@ -4268,33 +4271,33 @@
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>114</v>
@@ -4309,7 +4312,7 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>48</v>
@@ -4318,10 +4321,10 @@
         <v>81</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>52</v>
@@ -4336,36 +4339,36 @@
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4377,7 +4380,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>48</v>
@@ -4386,10 +4389,10 @@
         <v>81</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>37</v>
@@ -4404,33 +4407,33 @@
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>366</v>
-      </c>
       <c r="G46" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>114</v>
@@ -4445,7 +4448,7 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>48</v>
@@ -4454,16 +4457,16 @@
         <v>81</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S46" s="10" t="s">
         <v>39</v>
@@ -4472,10 +4475,10 @@
         <v>40</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4501,22 +4504,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1163,7 +1163,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.0.0-RC1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Date:</t>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="397">
   <si>
     <t>Row</t>
   </si>
@@ -371,6 +371,9 @@
     <t>https://cdn.sparkfun.com/assets/6/9/0/f/3/DS-12999-LED_-_RGB_Addressable__PTH__5mm_Clear__5_Pack_.pdf</t>
   </si>
   <si>
+    <t>/LEDs</t>
+  </si>
+  <si>
     <t>pedalboard-hw(10)</t>
   </si>
   <si>
@@ -1163,7 +1166,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>
@@ -1175,7 +1178,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.1.1-36-gbcf78dbe24-dirty-deb11</t>
+    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -1714,7 +1717,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
@@ -1737,7 +1740,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1761,13 +1764,13 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F2" s="3">
         <v>38</v>
@@ -1775,41 +1778,41 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1817,13 +1820,13 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F6" s="3">
         <v>76</v>
@@ -2411,16 +2414,16 @@
         <v>116</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P16" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>52</v>
@@ -2435,33 +2438,33 @@
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>29</v>
@@ -2476,7 +2479,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>33</v>
@@ -2485,10 +2488,10 @@
         <v>81</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>37</v>
@@ -2514,22 +2517,22 @@
         <v>115</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>114</v>
@@ -2544,60 +2547,60 @@
         <v>31</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P18" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R18" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S18" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="V18" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>114</v>
@@ -2612,7 +2615,7 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>33</v>
@@ -2621,10 +2624,10 @@
         <v>81</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>37</v>
@@ -2639,10 +2642,10 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="60" customHeight="1">
@@ -2650,25 +2653,25 @@
         <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D20" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>156</v>
-      </c>
       <c r="G20" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>22</v>
@@ -2680,7 +2683,7 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>33</v>
@@ -2689,16 +2692,16 @@
         <v>81</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P20" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -2707,33 +2710,33 @@
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V20" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>114</v>
@@ -2748,19 +2751,19 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>52</v>
@@ -2775,33 +2778,33 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>114</v>
@@ -2816,25 +2819,25 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O22" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P22" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -2843,36 +2846,36 @@
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V22" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="60" customHeight="1">
       <c r="A23" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>22</v>
@@ -2884,7 +2887,7 @@
         <v>31</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M23" s="7" t="s">
         <v>48</v>
@@ -2893,16 +2896,16 @@
         <v>81</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>39</v>
@@ -2911,33 +2914,33 @@
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="30" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>114</v>
@@ -2952,7 +2955,7 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>48</v>
@@ -2961,10 +2964,10 @@
         <v>34</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>37</v>
@@ -2979,33 +2982,33 @@
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>114</v>
@@ -3020,7 +3023,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>48</v>
@@ -3029,10 +3032,10 @@
         <v>34</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>37</v>
@@ -3041,39 +3044,39 @@
         <v>38</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="30" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>114</v>
@@ -3088,7 +3091,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>48</v>
@@ -3097,16 +3100,16 @@
         <v>81</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R26" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S26" s="10" t="s">
         <v>39</v>
@@ -3115,36 +3118,36 @@
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -3156,25 +3159,25 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>84</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>39</v>
@@ -3183,33 +3186,33 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>114</v>
@@ -3224,19 +3227,19 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>84</v>
@@ -3251,33 +3254,33 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="30" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>251</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>114</v>
@@ -3292,25 +3295,25 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>52</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>39</v>
@@ -3319,36 +3322,36 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>22</v>
@@ -3360,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M30" s="10" t="s">
         <v>33</v>
@@ -3369,10 +3372,10 @@
         <v>81</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>104</v>
@@ -3387,36 +3390,36 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>73</v>
@@ -3428,19 +3431,19 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>104</v>
@@ -3455,7 +3458,7 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V31" s="7" t="s">
         <v>42</v>
@@ -3463,25 +3466,25 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F32" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>281</v>
-      </c>
       <c r="G32" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H32" s="10" t="s">
         <v>114</v>
@@ -3496,7 +3499,7 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>33</v>
@@ -3505,10 +3508,10 @@
         <v>81</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>104</v>
@@ -3523,36 +3526,36 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3564,7 +3567,7 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>48</v>
@@ -3573,10 +3576,10 @@
         <v>81</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>52</v>
@@ -3591,7 +3594,7 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V33" s="7" t="s">
         <v>42</v>
@@ -3599,28 +3602,28 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3632,7 +3635,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
@@ -3641,10 +3644,10 @@
         <v>81</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>52</v>
@@ -3659,7 +3662,7 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V34" s="10" t="s">
         <v>42</v>
@@ -3667,28 +3670,28 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>22</v>
@@ -3700,7 +3703,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
@@ -3709,10 +3712,10 @@
         <v>81</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>37</v>
@@ -3727,7 +3730,7 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>42</v>
@@ -3735,28 +3738,28 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>30</v>
@@ -3768,7 +3771,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3777,10 +3780,10 @@
         <v>34</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>52</v>
@@ -3795,7 +3798,7 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V36" s="10" t="s">
         <v>42</v>
@@ -3803,25 +3806,25 @@
     </row>
     <row r="37" spans="1:22" ht="30" customHeight="1">
       <c r="A37" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>114</v>
@@ -3836,7 +3839,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3845,10 +3848,10 @@
         <v>81</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -3863,33 +3866,33 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>114</v>
@@ -3904,7 +3907,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3913,10 +3916,10 @@
         <v>81</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>52</v>
@@ -3931,33 +3934,33 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>114</v>
@@ -3972,7 +3975,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -3981,10 +3984,10 @@
         <v>81</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -3999,33 +4002,33 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>114</v>
@@ -4040,7 +4043,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -4049,10 +4052,10 @@
         <v>81</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>52</v>
@@ -4067,33 +4070,33 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>114</v>
@@ -4108,7 +4111,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4117,10 +4120,10 @@
         <v>81</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>52</v>
@@ -4135,33 +4138,33 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>114</v>
@@ -4176,7 +4179,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4185,10 +4188,10 @@
         <v>81</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>52</v>
@@ -4203,33 +4206,33 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>114</v>
@@ -4244,7 +4247,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
@@ -4253,10 +4256,10 @@
         <v>81</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>52</v>
@@ -4271,33 +4274,33 @@
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>114</v>
@@ -4312,7 +4315,7 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>48</v>
@@ -4321,10 +4324,10 @@
         <v>81</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>52</v>
@@ -4339,36 +4342,36 @@
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D45" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>356</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4380,7 +4383,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>48</v>
@@ -4389,10 +4392,10 @@
         <v>81</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>37</v>
@@ -4407,33 +4410,33 @@
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="E46" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>367</v>
-      </c>
       <c r="G46" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H46" s="10" t="s">
         <v>114</v>
@@ -4448,7 +4451,7 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>48</v>
@@ -4457,16 +4460,16 @@
         <v>81</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="S46" s="10" t="s">
         <v>39</v>
@@ -4475,10 +4478,10 @@
         <v>40</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4504,22 +4507,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="406">
   <si>
     <t>Row</t>
   </si>
@@ -383,10 +383,7 @@
     <t>77.0000</t>
   </si>
   <si>
-    <t>4.8800</t>
-  </si>
-  <si>
-    <t>1.8000</t>
+    <t>4.8100</t>
   </si>
   <si>
     <t>9</t>
@@ -434,7 +431,7 @@
     <t>pedalboard-hw(4)</t>
   </si>
   <si>
-    <t>76.2400</t>
+    <t>66.9900</t>
   </si>
   <si>
     <t>50.3100</t>
@@ -599,6 +596,39 @@
     <t>15</t>
   </si>
   <si>
+    <t>Generic connector, double row, 02x02, odd/even pin numbering scheme (row 1 odd numbers, row 2 even numbers), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
+  </si>
+  <si>
+    <t>Conn_02x02_Odd_Even</t>
+  </si>
+  <si>
+    <t>J18 J19 J20 J21 J22 J23</t>
+  </si>
+  <si>
+    <t>LED-Ring</t>
+  </si>
+  <si>
+    <t>PinHeader_2x02_P2.00mm_Vertical</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.00mm</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(6)</t>
+  </si>
+  <si>
+    <t>149.0000</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>3.3500</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>Generic connector, double row, 02x03, top/bottom pin numbering scheme (row 1: 1...pins_per_row, row2: pins_per_row+1 ... num_pins), script generated (kicad-library-utils/schlib/autogen/connector/)</t>
   </si>
   <si>
@@ -626,7 +656,7 @@
     <t>6.7800</t>
   </si>
   <si>
-    <t>16</t>
+    <t>17</t>
   </si>
   <si>
     <t>Audio Jack, 3 Poles (Stereo / TRS), Switched TR Poles (Normalling)</t>
@@ -659,7 +689,7 @@
     <t>6.7000</t>
   </si>
   <si>
-    <t>17</t>
+    <t>18</t>
   </si>
   <si>
     <t>5-pin DIN connector (5-pin DIN-5 stereo)</t>
@@ -689,7 +719,7 @@
     <t>14.7500</t>
   </si>
   <si>
-    <t>18</t>
+    <t>19</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x02, script generated</t>
@@ -716,10 +746,7 @@
     <t>1.3500</t>
   </si>
   <si>
-    <t>3.3500</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>20</t>
   </si>
   <si>
     <t>Generic connector, single row, 01x03, script generated</t>
@@ -746,7 +773,7 @@
     <t>42.0374</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>J7</t>
@@ -770,7 +797,7 @@
     <t>49.9600</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>USB Type A connector</t>
@@ -797,7 +824,7 @@
     <t>9.3200</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
     <t>Inductor</t>
@@ -830,7 +857,7 @@
     <t>2.6000</t>
   </si>
   <si>
-    <t>23</t>
+    <t>24</t>
   </si>
   <si>
     <t>Inductor with ferrite core</t>
@@ -860,7 +887,7 @@
     <t>11.7600</t>
   </si>
   <si>
-    <t>24</t>
+    <t>25</t>
   </si>
   <si>
     <t/>
@@ -887,7 +914,7 @@
     <t>22.5700</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
   </si>
   <si>
     <t>Resistor</t>
@@ -914,7 +941,7 @@
     <t>55.6600</t>
   </si>
   <si>
-    <t>26</t>
+    <t>27</t>
   </si>
   <si>
     <t>R3</t>
@@ -929,7 +956,7 @@
     <t>61.9500</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>R1</t>
@@ -944,7 +971,7 @@
     <t>56.0200</t>
   </si>
   <si>
-    <t>28</t>
+    <t>29</t>
   </si>
   <si>
     <t>R2 R5</t>
@@ -956,7 +983,7 @@
     <t>58.9500</t>
   </si>
   <si>
-    <t>29</t>
+    <t>30</t>
   </si>
   <si>
     <t>Omron B3FS 6x6mm single pole normally-open tactile switch</t>
@@ -992,7 +1019,7 @@
     <t>7.5000</t>
   </si>
   <si>
-    <t>30</t>
+    <t>31</t>
   </si>
   <si>
     <t>SW5</t>
@@ -1004,7 +1031,7 @@
     <t>78.7500</t>
   </si>
   <si>
-    <t>31</t>
+    <t>32</t>
   </si>
   <si>
     <t>SW6</t>
@@ -1013,9 +1040,6 @@
     <t>153.7500</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
@@ -1025,13 +1049,16 @@
     <t>60.5000</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>SW2</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>34</t>
+    <t>35</t>
   </si>
   <si>
     <t>SW3</t>
@@ -1040,7 +1067,7 @@
     <t>F</t>
   </si>
   <si>
-    <t>35</t>
+    <t>36</t>
   </si>
   <si>
     <t>Rotary encoder, dual channel, incremental quadrate outputs, with switch</t>
@@ -1073,7 +1100,7 @@
     <t>14.4000</t>
   </si>
   <si>
-    <t>36</t>
+    <t>37</t>
   </si>
   <si>
     <t>SW7</t>
@@ -1085,7 +1112,7 @@
     <t>40.2500</t>
   </si>
   <si>
-    <t>37</t>
+    <t>38</t>
   </si>
   <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
@@ -1121,7 +1148,7 @@
     <t>6.6800</t>
   </si>
   <si>
-    <t>38</t>
+    <t>39</t>
   </si>
   <si>
     <t>Pico</t>
@@ -1187,7 +1214,7 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>76 (4 SMD/ 70 THT)</t>
+    <t>82 (4 SMD/ 76 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
@@ -1705,7 +1732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V46"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1740,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1764,55 +1791,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F2" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1820,16 +1847,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="F6" s="3">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2441,30 +2468,30 @@
         <v>121</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>29</v>
@@ -2479,7 +2506,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>33</v>
@@ -2488,10 +2515,10 @@
         <v>81</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>37</v>
@@ -2517,22 +2544,22 @@
         <v>115</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>133</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="H18" s="10" t="s">
         <v>114</v>
@@ -2547,60 +2574,60 @@
         <v>31</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N18" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="P18" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>139</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R18" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="V18" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>114</v>
@@ -2615,7 +2642,7 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>33</v>
@@ -2624,10 +2651,10 @@
         <v>81</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>37</v>
@@ -2642,10 +2669,10 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="V19" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="60" customHeight="1">
@@ -2653,25 +2680,25 @@
         <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>22</v>
@@ -2683,7 +2710,7 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>33</v>
@@ -2692,16 +2719,16 @@
         <v>81</v>
       </c>
       <c r="O20" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -2710,33 +2737,33 @@
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="V20" s="10" t="s">
         <v>165</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>114</v>
@@ -2751,19 +2778,19 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>52</v>
@@ -2778,33 +2805,33 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="V21" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>184</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>185</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>114</v>
@@ -2819,25 +2846,25 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>187</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O22" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>188</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>189</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -2846,54 +2873,54 @@
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="V22" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="V22" s="10" t="s">
+    </row>
+    <row r="23" spans="1:22" ht="45" customHeight="1">
+      <c r="A23" s="5" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="60" customHeight="1">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="7" t="s">
-        <v>161</v>
-      </c>
       <c r="I23" s="5" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="L23" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>198</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>199</v>
@@ -2902,10 +2929,10 @@
         <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="R23" s="7" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="S23" s="7" t="s">
         <v>39</v>
@@ -2914,13 +2941,13 @@
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="V23" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="30" customHeight="1">
+    <row r="24" spans="1:22" ht="60" customHeight="1">
       <c r="A24" s="8" t="s">
         <v>202</v>
       </c>
@@ -2931,7 +2958,7 @@
         <v>204</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>205</v>
@@ -2943,13 +2970,13 @@
         <v>207</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>31</v>
@@ -2961,7 +2988,7 @@
         <v>48</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O24" s="10" t="s">
         <v>209</v>
@@ -2973,7 +3000,7 @@
         <v>37</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="S24" s="10" t="s">
         <v>39</v>
@@ -2982,33 +3009,33 @@
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="V24" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="V24" s="10" t="s">
+    </row>
+    <row r="25" spans="1:22" ht="30" customHeight="1">
+      <c r="A25" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="25" spans="1:22">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="D25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>114</v>
@@ -3023,7 +3050,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>48</v>
@@ -3032,7 +3059,7 @@
         <v>34</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>220</v>
@@ -3044,7 +3071,7 @@
         <v>38</v>
       </c>
       <c r="S25" s="7" t="s">
-        <v>141</v>
+        <v>39</v>
       </c>
       <c r="T25" s="7" t="s">
         <v>40</v>
@@ -3056,7 +3083,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="30" customHeight="1">
+    <row r="26" spans="1:22">
       <c r="A26" s="8" t="s">
         <v>223</v>
       </c>
@@ -3067,7 +3094,7 @@
         <v>225</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>226</v>
@@ -3082,10 +3109,10 @@
         <v>114</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K26" s="8" t="s">
         <v>31</v>
@@ -3097,22 +3124,22 @@
         <v>48</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O26" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="P26" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R26" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S26" s="10" t="s">
         <v>140</v>
-      </c>
-      <c r="S26" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>40</v>
@@ -3135,7 +3162,7 @@
         <v>235</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>236</v>
@@ -3147,7 +3174,7 @@
         <v>238</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>22</v>
@@ -3162,7 +3189,7 @@
         <v>239</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>81</v>
@@ -3171,13 +3198,13 @@
         <v>240</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>39</v>
@@ -3186,36 +3213,36 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>165</v>
+        <v>241</v>
       </c>
       <c r="V27" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>181</v>
+        <v>243</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>22</v>
@@ -3227,25 +3254,25 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>187</v>
+        <v>117</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>39</v>
@@ -3254,30 +3281,30 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="30" customHeight="1">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>251</v>
+        <v>180</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="F29" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>254</v>
@@ -3298,7 +3325,7 @@
         <v>255</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>81</v>
@@ -3310,10 +3337,10 @@
         <v>257</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="R29" s="7" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="S29" s="7" t="s">
         <v>39</v>
@@ -3339,19 +3366,19 @@
         <v>261</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>262</v>
       </c>
       <c r="F30" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>264</v>
-      </c>
       <c r="H30" s="10" t="s">
-        <v>265</v>
+        <v>114</v>
       </c>
       <c r="I30" s="8" t="s">
         <v>22</v>
@@ -3363,25 +3390,25 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="S30" s="10" t="s">
         <v>39</v>
@@ -3390,60 +3417,60 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="I31" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="M31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>104</v>
@@ -3458,42 +3485,42 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="30" customHeight="1">
+      <c r="A32" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="V31" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22">
-      <c r="A32" s="8" t="s">
+      <c r="B32" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="D32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>284</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>114</v>
+        <v>274</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>31</v>
@@ -3502,10 +3529,10 @@
         <v>285</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="O32" s="10" t="s">
         <v>286</v>
@@ -3529,33 +3556,33 @@
         <v>288</v>
       </c>
       <c r="V32" s="10" t="s">
-        <v>288</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="12" t="s">
         <v>290</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>291</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>25</v>
+        <v>291</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>292</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>115</v>
+        <v>291</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>293</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>294</v>
+        <v>114</v>
       </c>
       <c r="I33" s="5" t="s">
         <v>22</v>
@@ -3567,22 +3594,22 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P33" s="7" t="s">
-        <v>297</v>
-      </c>
       <c r="Q33" s="7" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="R33" s="7" t="s">
         <v>38</v>
@@ -3594,10 +3621,10 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>42</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -3605,25 +3632,25 @@
         <v>298</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>300</v>
+        <v>115</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3635,7 +3662,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
@@ -3644,10 +3671,10 @@
         <v>81</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>52</v>
@@ -3662,7 +3689,7 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="V34" s="10" t="s">
         <v>42</v>
@@ -3670,28 +3697,28 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>22</v>
@@ -3703,7 +3730,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
@@ -3712,13 +3739,13 @@
         <v>81</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R35" s="7" t="s">
         <v>38</v>
@@ -3730,7 +3757,7 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>42</v>
@@ -3738,55 +3765,55 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K36" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="R36" s="10" t="s">
         <v>38</v>
@@ -3798,60 +3825,60 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="V36" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="30" customHeight="1">
+    <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>315</v>
+        <v>25</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -3866,24 +3893,24 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>323</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>315</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>325</v>
@@ -3892,7 +3919,7 @@
         <v>326</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>114</v>
@@ -3907,7 +3934,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3916,10 +3943,10 @@
         <v>81</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>52</v>
@@ -3934,33 +3961,33 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>24</v>
+        <v>335</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>114</v>
@@ -3975,7 +4002,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -3984,10 +4011,10 @@
         <v>81</v>
       </c>
       <c r="O39" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P39" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -4002,33 +4029,33 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>114</v>
@@ -4043,7 +4070,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -4052,10 +4079,10 @@
         <v>81</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>52</v>
@@ -4070,33 +4097,33 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>114</v>
@@ -4111,7 +4138,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4120,10 +4147,10 @@
         <v>81</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>52</v>
@@ -4138,33 +4165,33 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>114</v>
@@ -4179,7 +4206,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4188,10 +4215,10 @@
         <v>81</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>52</v>
@@ -4206,33 +4233,33 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>25</v>
+        <v>324</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>114</v>
@@ -4247,7 +4274,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
@@ -4256,10 +4283,10 @@
         <v>81</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>52</v>
@@ -4274,21 +4301,21 @@
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>351</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>342</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>25</v>
@@ -4300,7 +4327,7 @@
         <v>353</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>114</v>
@@ -4315,7 +4342,7 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>48</v>
@@ -4324,10 +4351,10 @@
         <v>81</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>52</v>
@@ -4342,36 +4369,36 @@
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>358</v>
+        <v>25</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>361</v>
+        <v>114</v>
       </c>
       <c r="I45" s="5" t="s">
         <v>22</v>
@@ -4383,7 +4410,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>48</v>
@@ -4395,10 +4422,10 @@
         <v>363</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="R45" s="7" t="s">
         <v>38</v>
@@ -4410,36 +4437,36 @@
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="F46" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>114</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>22</v>
@@ -4451,7 +4478,7 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>48</v>
@@ -4460,16 +4487,16 @@
         <v>81</v>
       </c>
       <c r="O46" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="P46" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="P46" s="10" t="s">
-        <v>374</v>
-      </c>
       <c r="Q46" s="10" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R46" s="10" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="S46" s="10" t="s">
         <v>39</v>
@@ -4478,10 +4505,78 @@
         <v>40</v>
       </c>
       <c r="U46" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="V46" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="V46" s="10" t="s">
-        <v>249</v>
+    </row>
+    <row r="47" spans="1:22" ht="30" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="R47" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="S47" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T47" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U47" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="V47" s="7" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -4507,22 +4602,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -8,17 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="BoM" sheetId="1" r:id="rId1"/>
-    <sheet name="Colors" sheetId="2" r:id="rId2"/>
+    <sheet name="DNF" sheetId="2" r:id="rId2"/>
+    <sheet name="Colors" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">BoM!$9:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">DNF!$9:$9</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="411">
   <si>
     <t>Row</t>
   </si>
@@ -353,7 +355,7 @@
     <t>LED</t>
   </si>
   <si>
-    <t>D1 D2 D3 D4 D5 D6 D7 D8 D9 D10</t>
+    <t>D1 D2 D3 D4</t>
   </si>
   <si>
     <t>NEOPIX</t>
@@ -365,54 +367,54 @@
     <t>Pedalboard Library</t>
   </si>
   <si>
+    <t>https://cdn.sparkfun.com/assets/6/9/0/f/3/DS-12999-LED_-_RGB_Addressable__PTH__5mm_Clear__5_Pack_.pdf</t>
+  </si>
+  <si>
+    <t>/LEDs</t>
+  </si>
+  <si>
+    <t>pedalboard-hw(4)</t>
+  </si>
+  <si>
+    <t>45.6000</t>
+  </si>
+  <si>
+    <t>77.0000</t>
+  </si>
+  <si>
+    <t>4.8100</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Resettable fuse, polymeric positive temperature coefficient</t>
+  </si>
+  <si>
+    <t>Polyfuse</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>Polyfuse 1.8A</t>
+  </si>
+  <si>
+    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/1n5400-d.pdf</t>
+  </si>
+  <si>
+    <t>151.9000</t>
+  </si>
+  <si>
+    <t>95.2000</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>https://cdn.sparkfun.com/assets/6/9/0/f/3/DS-12999-LED_-_RGB_Addressable__PTH__5mm_Clear__5_Pack_.pdf</t>
-  </si>
-  <si>
-    <t>/LEDs</t>
-  </si>
-  <si>
-    <t>pedalboard-hw(10)</t>
-  </si>
-  <si>
-    <t>45.6000</t>
-  </si>
-  <si>
-    <t>77.0000</t>
-  </si>
-  <si>
-    <t>4.8100</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Resettable fuse, polymeric positive temperature coefficient</t>
-  </si>
-  <si>
-    <t>Polyfuse</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>Polyfuse 1.8A</t>
-  </si>
-  <si>
-    <t>C_Rect_L7.0mm_W3.5mm_P5.00mm</t>
-  </si>
-  <si>
-    <t>https://www.onsemi.com/pdf/datasheet/1n5400-d.pdf</t>
-  </si>
-  <si>
-    <t>151.9000</t>
-  </si>
-  <si>
-    <t>95.2000</t>
-  </si>
-  <si>
     <t>Fuse, small symbol</t>
   </si>
   <si>
@@ -428,9 +430,6 @@
     <t>Trace_Fuse</t>
   </si>
   <si>
-    <t>pedalboard-hw(4)</t>
-  </si>
-  <si>
     <t>66.9900</t>
   </si>
   <si>
@@ -608,10 +607,7 @@
     <t>LED-Ring</t>
   </si>
   <si>
-    <t>PinHeader_2x02_P2.00mm_Vertical</t>
-  </si>
-  <si>
-    <t>Connector_PinHeader_2.00mm</t>
+    <t>Led-Ring</t>
   </si>
   <si>
     <t>pedalboard-hw(6)</t>
@@ -1220,10 +1216,31 @@
     <t>Fitted Components:</t>
   </si>
   <si>
+    <t>76 (4 SMD/ 70 THT)</t>
+  </si>
+  <si>
     <t>Number of PCBs:</t>
   </si>
   <si>
     <t>Total Components:</t>
+  </si>
+  <si>
+    <t>D5 D6 D7 D8 D9 D10</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>144.1000</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -1396,6 +1413,58 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1464384</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2378784" cy="1285829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1767,7 +1836,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1791,41 +1860,41 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F2" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>398</v>
@@ -1833,13 +1902,13 @@
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1847,16 +1916,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F6" s="3">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -2429,28 +2498,28 @@
         <v>114</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="N16" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="O16" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="10" t="s">
+      <c r="P16" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>52</v>
@@ -2465,7 +2534,7 @@
         <v>40</v>
       </c>
       <c r="U16" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="V16" s="10" t="s">
         <v>72</v>
@@ -2473,25 +2542,25 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>29</v>
@@ -2506,7 +2575,7 @@
         <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M17" s="7" t="s">
         <v>33</v>
@@ -2515,10 +2584,10 @@
         <v>81</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>37</v>
@@ -2541,7 +2610,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>131</v>
@@ -2580,54 +2649,54 @@
         <v>48</v>
       </c>
       <c r="N18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="O18" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="P18" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S18" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="S18" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="T18" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U18" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="V18" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="V18" s="10" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="30" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>114</v>
@@ -2642,7 +2711,7 @@
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>33</v>
@@ -2651,10 +2720,10 @@
         <v>81</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>37</v>
@@ -2669,10 +2738,10 @@
         <v>40</v>
       </c>
       <c r="U19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="V19" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="V19" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="60" customHeight="1">
@@ -2680,25 +2749,25 @@
         <v>46</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F20" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G20" s="10" t="s">
+      <c r="H20" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>22</v>
@@ -2710,7 +2779,7 @@
         <v>31</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>33</v>
@@ -2719,16 +2788,16 @@
         <v>81</v>
       </c>
       <c r="O20" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="P20" s="10" t="s">
         <v>162</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>163</v>
       </c>
       <c r="Q20" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R20" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S20" s="10" t="s">
         <v>39</v>
@@ -2737,33 +2806,33 @@
         <v>40</v>
       </c>
       <c r="U20" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="V20" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="30" customHeight="1">
       <c r="A21" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="F21" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>114</v>
@@ -2778,19 +2847,19 @@
         <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="N21" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>52</v>
@@ -2805,33 +2874,33 @@
         <v>40</v>
       </c>
       <c r="U21" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="V21" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="V21" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="30" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D22" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="F22" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="H22" s="10" t="s">
         <v>114</v>
@@ -2846,25 +2915,25 @@
         <v>31</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>186</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O22" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="P22" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S22" s="10" t="s">
         <v>39</v>
@@ -2873,36 +2942,36 @@
         <v>40</v>
       </c>
       <c r="U22" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="V22" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="V22" s="10" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="45" customHeight="1">
       <c r="A23" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="H23" s="7" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>86</v>
@@ -2917,16 +2986,16 @@
         <v>134</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N23" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>84</v>
@@ -2941,36 +3010,36 @@
         <v>40</v>
       </c>
       <c r="U23" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="V23" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="60" customHeight="1">
       <c r="A24" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="D24" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="F24" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>207</v>
-      </c>
       <c r="H24" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>22</v>
@@ -2982,7 +3051,7 @@
         <v>31</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>48</v>
@@ -2991,16 +3060,16 @@
         <v>81</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P24" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>37</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S24" s="10" t="s">
         <v>39</v>
@@ -3009,33 +3078,33 @@
         <v>40</v>
       </c>
       <c r="U24" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="30" customHeight="1">
       <c r="A25" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="D25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="F25" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>114</v>
@@ -3050,7 +3119,7 @@
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>48</v>
@@ -3059,10 +3128,10 @@
         <v>34</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>37</v>
@@ -3077,33 +3146,33 @@
         <v>40</v>
       </c>
       <c r="U25" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="V25" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="D26" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="10" t="s">
+      <c r="G26" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>228</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>114</v>
@@ -3118,7 +3187,7 @@
         <v>31</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M26" s="10" t="s">
         <v>48</v>
@@ -3127,10 +3196,10 @@
         <v>34</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>37</v>
@@ -3139,39 +3208,39 @@
         <v>38</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U26" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V26" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
       <c r="A27" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="D27" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>114</v>
@@ -3186,7 +3255,7 @@
         <v>31</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>48</v>
@@ -3195,16 +3264,16 @@
         <v>81</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q27" s="7" t="s">
         <v>37</v>
       </c>
       <c r="R27" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S27" s="7" t="s">
         <v>39</v>
@@ -3213,36 +3282,36 @@
         <v>40</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="30" customHeight="1">
       <c r="A28" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="D28" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="F28" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>247</v>
-      </c>
       <c r="H28" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>22</v>
@@ -3254,25 +3323,25 @@
         <v>31</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P28" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>84</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S28" s="10" t="s">
         <v>39</v>
@@ -3281,33 +3350,33 @@
         <v>40</v>
       </c>
       <c r="U28" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V28" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>114</v>
@@ -3322,19 +3391,19 @@
         <v>31</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>81</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>84</v>
@@ -3349,33 +3418,33 @@
         <v>40</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="30" customHeight="1">
       <c r="A30" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="D30" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="F30" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>261</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>263</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>114</v>
@@ -3390,25 +3459,25 @@
         <v>31</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N30" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>52</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S30" s="10" t="s">
         <v>39</v>
@@ -3417,36 +3486,36 @@
         <v>40</v>
       </c>
       <c r="U30" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V30" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="30" customHeight="1">
       <c r="A31" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C31" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="H31" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>22</v>
@@ -3458,7 +3527,7 @@
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>33</v>
@@ -3467,10 +3536,10 @@
         <v>81</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q31" s="7" t="s">
         <v>104</v>
@@ -3485,36 +3554,36 @@
         <v>40</v>
       </c>
       <c r="U31" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V31" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="30" customHeight="1">
       <c r="A32" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>279</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>281</v>
       </c>
       <c r="D32" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E32" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F32" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>284</v>
-      </c>
       <c r="H32" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>73</v>
@@ -3526,19 +3595,19 @@
         <v>31</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M32" s="10" t="s">
         <v>48</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="P32" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q32" s="10" t="s">
         <v>104</v>
@@ -3553,7 +3622,7 @@
         <v>40</v>
       </c>
       <c r="U32" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V32" s="10" t="s">
         <v>42</v>
@@ -3561,25 +3630,25 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="D33" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="F33" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>114</v>
@@ -3594,7 +3663,7 @@
         <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M33" s="7" t="s">
         <v>33</v>
@@ -3603,10 +3672,10 @@
         <v>81</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>104</v>
@@ -3621,36 +3690,36 @@
         <v>40</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E34" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>303</v>
       </c>
       <c r="I34" s="8" t="s">
         <v>22</v>
@@ -3662,7 +3731,7 @@
         <v>31</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>48</v>
@@ -3671,10 +3740,10 @@
         <v>81</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="P34" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>52</v>
@@ -3689,7 +3758,7 @@
         <v>40</v>
       </c>
       <c r="U34" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V34" s="10" t="s">
         <v>42</v>
@@ -3697,28 +3766,28 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I35" s="5" t="s">
         <v>22</v>
@@ -3730,7 +3799,7 @@
         <v>31</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M35" s="7" t="s">
         <v>48</v>
@@ -3739,10 +3808,10 @@
         <v>81</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>52</v>
@@ -3757,7 +3826,7 @@
         <v>40</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V35" s="7" t="s">
         <v>42</v>
@@ -3765,28 +3834,28 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D36" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I36" s="8" t="s">
         <v>22</v>
@@ -3798,7 +3867,7 @@
         <v>31</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>48</v>
@@ -3807,10 +3876,10 @@
         <v>81</v>
       </c>
       <c r="O36" s="10" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="P36" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>37</v>
@@ -3825,7 +3894,7 @@
         <v>40</v>
       </c>
       <c r="U36" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V36" s="10" t="s">
         <v>42</v>
@@ -3833,28 +3902,28 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>30</v>
@@ -3866,7 +3935,7 @@
         <v>31</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M37" s="7" t="s">
         <v>48</v>
@@ -3875,10 +3944,10 @@
         <v>34</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="Q37" s="7" t="s">
         <v>52</v>
@@ -3893,7 +3962,7 @@
         <v>40</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="V37" s="7" t="s">
         <v>42</v>
@@ -3901,25 +3970,25 @@
     </row>
     <row r="38" spans="1:22" ht="30" customHeight="1">
       <c r="A38" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="D38" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="E38" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="F38" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>325</v>
-      </c>
-      <c r="F38" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>327</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>114</v>
@@ -3934,7 +4003,7 @@
         <v>31</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>48</v>
@@ -3943,10 +4012,10 @@
         <v>81</v>
       </c>
       <c r="O38" s="10" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P38" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>52</v>
@@ -3961,33 +4030,33 @@
         <v>40</v>
       </c>
       <c r="U38" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V38" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="30" customHeight="1">
       <c r="A39" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>335</v>
-      </c>
       <c r="G39" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>114</v>
@@ -4002,7 +4071,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M39" s="7" t="s">
         <v>48</v>
@@ -4011,10 +4080,10 @@
         <v>81</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q39" s="7" t="s">
         <v>52</v>
@@ -4029,33 +4098,33 @@
         <v>40</v>
       </c>
       <c r="U39" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V39" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="30" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B40" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>324</v>
-      </c>
       <c r="E40" s="10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>114</v>
@@ -4070,7 +4139,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>48</v>
@@ -4079,10 +4148,10 @@
         <v>81</v>
       </c>
       <c r="O40" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>52</v>
@@ -4097,33 +4166,33 @@
         <v>40</v>
       </c>
       <c r="U40" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="30" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B41" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="E41" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>114</v>
@@ -4138,7 +4207,7 @@
         <v>31</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M41" s="7" t="s">
         <v>48</v>
@@ -4147,10 +4216,10 @@
         <v>81</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q41" s="7" t="s">
         <v>52</v>
@@ -4165,33 +4234,33 @@
         <v>40</v>
       </c>
       <c r="U41" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V41" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="30" customHeight="1">
       <c r="A42" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>345</v>
-      </c>
       <c r="G42" s="10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H42" s="10" t="s">
         <v>114</v>
@@ -4206,7 +4275,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>48</v>
@@ -4215,10 +4284,10 @@
         <v>81</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P42" s="10" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>52</v>
@@ -4233,33 +4302,33 @@
         <v>40</v>
       </c>
       <c r="U42" s="10" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V42" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="30" customHeight="1">
       <c r="A43" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>348</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>114</v>
@@ -4274,7 +4343,7 @@
         <v>31</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M43" s="7" t="s">
         <v>48</v>
@@ -4283,10 +4352,10 @@
         <v>81</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="Q43" s="7" t="s">
         <v>52</v>
@@ -4301,33 +4370,33 @@
         <v>40</v>
       </c>
       <c r="U43" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="V43" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="30" customHeight="1">
       <c r="A44" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>349</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>351</v>
       </c>
       <c r="D44" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>352</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>354</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>114</v>
@@ -4342,7 +4411,7 @@
         <v>31</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>48</v>
@@ -4351,10 +4420,10 @@
         <v>81</v>
       </c>
       <c r="O44" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="P44" s="10" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q44" s="10" t="s">
         <v>52</v>
@@ -4369,33 +4438,33 @@
         <v>40</v>
       </c>
       <c r="U44" s="10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="V44" s="10" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="30" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D45" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>114</v>
@@ -4410,7 +4479,7 @@
         <v>31</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M45" s="7" t="s">
         <v>48</v>
@@ -4419,10 +4488,10 @@
         <v>81</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q45" s="7" t="s">
         <v>52</v>
@@ -4437,36 +4506,36 @@
         <v>40</v>
       </c>
       <c r="U45" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="V45" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="30" customHeight="1">
       <c r="A46" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="D46" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="F46" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>368</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>370</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>22</v>
@@ -4478,7 +4547,7 @@
         <v>31</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>48</v>
@@ -4487,10 +4556,10 @@
         <v>81</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>37</v>
@@ -4505,33 +4574,33 @@
         <v>40</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="F47" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>114</v>
@@ -4546,7 +4615,7 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>48</v>
@@ -4555,16 +4624,16 @@
         <v>81</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>84</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="S47" s="7" t="s">
         <v>39</v>
@@ -4573,10 +4642,10 @@
         <v>40</v>
       </c>
       <c r="U47" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="V47" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4591,6 +4660,281 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="60.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" customWidth="1"/>
+    <col min="14" max="14" width="21.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" customWidth="1"/>
+    <col min="20" max="20" width="28.7109375" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="32" customHeight="1">
+      <c r="C1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="C2" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="C4" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="C5" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="C6" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="F6" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="30" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:V1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4602,22 +4946,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1201,7 +1201,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.5.1-1-g8f565ef7f0-dirty-deb11</t>
+    <t>7.0.7-7.0.7~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
@@ -1813,7 +1813,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="43.7109375" customWidth="1"/>
     <col min="6" max="6" width="28.7109375" customWidth="1"/>
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
@@ -4672,7 +4672,7 @@
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" customWidth="1"/>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="420">
   <si>
     <t>Row</t>
   </si>
@@ -1111,6 +1111,33 @@
     <t>38</t>
   </si>
   <si>
+    <t>OR Gate IC 1 Channel - SOT-353</t>
+  </si>
+  <si>
+    <t>74AHCT1G32SE-7</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOT-353_SC-70-5</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD</t>
+  </si>
+  <si>
+    <t>52.9500</t>
+  </si>
+  <si>
+    <t>77.9500</t>
+  </si>
+  <si>
+    <t>2.5500</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
     <t>Schmitt Trigger Output Optocoupler, High Speed, DIP-6, 1.6mA turn on threshold</t>
   </si>
   <si>
@@ -1144,7 +1171,7 @@
     <t>6.6800</t>
   </si>
   <si>
-    <t>39</t>
+    <t>40</t>
   </si>
   <si>
     <t>Pico</t>
@@ -1210,13 +1237,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>82 (4 SMD/ 76 THT)</t>
+    <t>83 (5 SMD/ 76 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>76 (4 SMD/ 70 THT)</t>
+    <t>77 (5 SMD/ 70 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -1801,7 +1828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1836,7 +1863,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1860,55 +1887,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F2" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1916,16 +1943,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F6" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -4512,7 +4539,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="30" customHeight="1">
+    <row r="46" spans="1:22">
       <c r="A46" s="8" t="s">
         <v>362</v>
       </c>
@@ -4523,19 +4550,19 @@
         <v>364</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="E46" s="10" t="s">
         <v>365</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>366</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>364</v>
       </c>
       <c r="G46" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>367</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>368</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>22</v>
@@ -4546,20 +4573,20 @@
       <c r="K46" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>369</v>
+      <c r="L46" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="N46" s="8" t="s">
         <v>81</v>
       </c>
       <c r="O46" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P46" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>37</v>
@@ -4568,42 +4595,42 @@
         <v>38</v>
       </c>
       <c r="S46" s="10" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="T46" s="10" t="s">
         <v>40</v>
       </c>
       <c r="U46" s="10" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="V46" s="10" t="s">
-        <v>373</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="30" customHeight="1">
       <c r="A47" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="E47" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="F47" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="H47" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="I47" s="5" t="s">
         <v>22</v>
@@ -4615,7 +4642,7 @@
         <v>31</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M47" s="7" t="s">
         <v>48</v>
@@ -4624,16 +4651,16 @@
         <v>81</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P47" s="7" t="s">
-        <v>381</v>
-      </c>
       <c r="Q47" s="7" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="S47" s="7" t="s">
         <v>39</v>
@@ -4642,9 +4669,77 @@
         <v>40</v>
       </c>
       <c r="U47" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="V47" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="V47" s="7" t="s">
+    </row>
+    <row r="48" spans="1:22" ht="30" customHeight="1">
+      <c r="A48" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="P48" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="R48" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="S48" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U48" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="V48" s="10" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4695,7 +4790,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -4719,55 +4814,55 @@
     </row>
     <row r="2" spans="1:22">
       <c r="C2" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="F2" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="2" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="C4" s="2" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="C5" s="2" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -4775,16 +4870,16 @@
     </row>
     <row r="6" spans="1:22">
       <c r="C6" s="2" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="F6" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -4869,7 +4964,7 @@
         <v>110</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>112</v>
@@ -4884,10 +4979,10 @@
         <v>86</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>115</v>
@@ -4899,10 +4994,10 @@
         <v>196</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>52</v>
@@ -4914,7 +5009,7 @@
         <v>39</v>
       </c>
       <c r="T9" s="7" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>120</v>
@@ -4946,22 +5041,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="12" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1216,13 +1216,13 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.1.0-RC1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>2023-03-12</t>
+    <t>2023-09-10</t>
   </si>
   <si>
     <t>KiCad Version:</t>

--- a/BoM/Positional/pedalboard-hw-bom.xlsx
+++ b/BoM/Positional/pedalboard-hw-bom.xlsx
@@ -1216,7 +1216,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>3.0.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>
